--- a/data_output_ipynb/output_llm_change_analysis_v3.xlsx
+++ b/data_output_ipynb/output_llm_change_analysis_v3.xlsx
@@ -651,49 +651,55 @@
       <c r="V2" t="inlineStr">
         <is>
           <t>L'analyse des modifications apportées à l'article révèle plusieurs changements notables :
-1. **Suppression de certaines obligations spécifiques** : La nouvelle version de l'article a supprimé plusieurs obligations détaillées qui étaient imposées aux prestataires de services, notamment celles relatives à la sécurité et au contrôle interne, à la gestion des conflits d'intérêts, à la résilience et à la sécurité des systèmes informatiques, ainsi qu'à la politique de conservation et de restitution des actifs numériques. Ces obligations étaient énumérées dans les points 5° et 6° de l'ancienne version.
-2. **Réduction des vérifications par l'AMF** : La nouvelle version a également supprimé la disposition selon laquelle l'Autorité des marchés financiers (AMF) vérifie la sécurité des systèmes d'information des prestataires enregistrés et peut solliciter l'avis de l'autorité mentionnée à l'article L. 2321-1 du code de la défense.
-3. **Simplification des conditions de conformité** : La nouvelle version a simplifié les conditions de conformité pour les prestataires enregistrés ou immatriculés dans un autre État membre de l'Union européenne ou partie à l'accord sur l'Espace économique européen, en supprimant la mention des conditions spécifiques aux 1° et 2° de l'article.
-4. **Clarification des procédures de radiation** : Les conditions de radiation des prestataires par l'AMF ont été maintenues, mais la nouvelle version a supprimé la mention explicite des motifs de radiation, tels que l'absence d'activité pendant douze mois ou plus, ou le non-respect des obligations.
-5. **Suppression de la publication des politiques tarifaires et de gestion des réclamations** : L'obligation pour les prestataires de rendre publiques leurs politiques tarifaires et de mettre en œuvre une politique de gestion des réclamations a été supprimée dans la nouvelle version.
-6. **Suppression de la suspension d'enregistrement en cas de menace pour la stabilité du marché** : La disposition permettant à l'AMF de suspendre l'enregistrement d'un prestataire en cas de menace grave et imminente pour la stabilité du marché des actifs numériques a été supprimée.
-En résumé, la nouvelle version de l'article semble viser une simplification et une réduction des obligations et des vérifications imposées aux prestataires de services. Les exigences spécifiques en matière de sécurité, de gestion des conflits d'intérêts, et de publication des politiques tarifaires et de gestion des réclamations ont été supprimées, ce qui pourrait alléger la charge administrative pour les prestataires. Cependant, cela pourrait également soulever des questions sur la rigueur de la supervision et la protection des clients.</t>
+1. **Suppression de certaines obligations spécifiques** : La nouvelle version de l'article a supprimé plusieurs obligations détaillées qui étaient imposées aux prestataires de services, notamment celles relatives à la sécurité et au contrôle interne, à la gestion des conflits d'intérêts, à la résilience et à la sécurité des systèmes informatiques, ainsi qu'aux obligations spécifiques pour les prestataires fournissant le service mentionné au 1° de l'article L. 54-10-2. Ces obligations incluaient la conclusion de conventions avec les clients, l'établissement de politiques de conservation, la restitution des actifs numériques, la ségrégation des détentions et l'usage des actifs numériques avec le consentement des clients.
+2. **Réduction des vérifications par l'AMF** : La nouvelle version a également supprimé la vérification par l'Autorité des marchés financiers (AMF) de la sécurité des systèmes d'information des prestataires enregistrés. De plus, la possibilité pour l'AMF de suspendre l'enregistrement d'un prestataire en cas de menace grave et imminente pour la stabilité du marché des actifs numériques a été retirée.
+3. **Simplification des procédures** : La nouvelle version semble simplifier les procédures en supprimant certaines étapes et exigences détaillées. Par exemple, la nécessité pour l'AMF de recueillir l'avis conforme de l'Autorité de contrôle prudentiel et de résolution sur le respect des conditions prévues aux 1° à 4° a été maintenue, mais les détails sur les procédures de suspension et de radiation ont été simplifiés.
+4. **Clarification des conditions de fourniture de services en France** : La nouvelle version maintient la disposition selon laquelle les conditions dans lesquelles un service est considéré comme fourni en France sont fixées par le règlement général de l'AMF, mais elle a supprimé les détails supplémentaires qui étaient présents dans l'ancienne version.
+En résumé, la nouvelle version de l'article semble viser à simplifier et à alléger certaines des obligations et des procédures imposées aux prestataires de services, tout en maintenant les exigences fondamentales en matière d'enregistrement et de conformité. Les modifications apportées pourraient être interprétées comme une volonté de rendre le cadre réglementaire plus flexible et moins contraignant pour les prestataires, tout en conservant les éléments essentiels de supervision et de contrôle par l'AMF.</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, tant sur le fond que sur la forme, qui méritent une attention particulière.
+          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, qui peuvent être résumées comme suit :
+1. **Suppression de certaines exigences spécifiques** :
+   - La nouvelle version a supprimé les exigences détaillées concernant les dispositifs de sécurité, de contrôle interne, de gestion des conflits d'intérêts, et de systèmes informatiques résilients et sécurisés (ancien 5°).
+   - Les obligations spécifiques pour les prestataires fournissant le service mentionné au 1° de l'article L. 54-10-2, telles que la conclusion de conventions avec les clients, l'établissement d'une politique de conservation, la restitution des actifs numériques, la ségrégation des détentions, et l'usage des actifs numériques avec consentement préalable (ancien 6°), ont également été supprimées.
+2. **Clarification des obligations de lutte contre le blanchiment et le financement du terrorisme** :
+   - La nouvelle version maintient les obligations de conformité en matière de lutte contre le blanchiment des capitaux et le financement du terrorisme, mais simplifie la rédaction en supprimant les références détaillées aux articles spécifiques du Code monétaire et financier.
+3. **Suppression des obligations de communication et de gestion des réclamations** :
+   - Les obligations de communication d'informations claires, exactes et non trompeuses, d'avertissement des risques associés aux actifs numériques, de publication des politiques tarifaires, et de gestion des réclamations des clients ont été supprimées.
+4. **Simplification des procédures de suspension et de radiation** :
+   - La nouvelle version a supprimé la disposition permettant à l'Autorité des marchés financiers (AMF) de suspendre d'office l'enregistrement d'un prestataire en cas de menace grave et imminente pour la stabilité du marché des actifs numériques.
+   - Les conditions de radiation par l'AMF restent similaires, mais la nouvelle version a supprimé la mention de la radiation pour fausses déclarations ou moyens irréguliers.
+5. **Maintien des procédures d'enregistrement et de coopération entre autorités** :
+   - Les procédures d'enregistrement par l'AMF et la coopération avec l'Autorité de contrôle prudentiel et de résolution (ACPR) sont maintenues, mais la nouvelle version simplifie la rédaction en supprimant les détails superflus.
+**Portée et conséquences** :
+- **Simplification et allègement réglementaire** : La nouvelle version simplifie les exigences réglementaires, ce qui pourrait réduire la charge administrative pour les prestataires de services.
+- **Réduction des garanties pour les clients** : La suppression des obligations spécifiques de communication, de gestion des réclamations, et de sécurité des systèmes pourrait potentiellement réduire les garanties offertes aux clients.
+- **Maintien des obligations essentielles** : Les obligations essentielles en matière de lutte contre le blanchiment des capitaux et le financement du terrorisme sont maintenues, assurant ainsi la conformité avec les normes européennes.
+En conclusion, la révision de l'article de loi semble viser une simplification des exigences réglementaires tout en maintenant les obligations essentielles de conformité, ce qui pourrait avoir des implications significatives pour les prestataires de services et leurs clients.</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables :
 1. **Suppression de certaines obligations spécifiques** :
-   - La nouvelle version a supprimé plusieurs obligations détaillées qui étaient imposées aux prestataires de services, notamment celles relatives à la sécurité et au contrôle interne, à la gestion des conflits d'intérêts, et à la résilience et sécurité des systèmes informatiques (ancien 5°). De même, les obligations spécifiques pour les prestataires fournissant le service mentionné au 1° de l'article L. 54-10-2, telles que la conclusion de conventions avec les clients, la politique de conservation, la restitution des actifs numériques, la ségrégation des détentions, et l'usage des actifs numériques (ancien 6°), ont été omises dans la nouvelle version.
-2. **Simplification et réduction des exigences** :
-   - La nouvelle version semble simplifier le cadre réglementaire en réduisant le nombre de critères que l'Autorité des marchés financiers (AMF) doit vérifier avant d'enregistrer les prestataires. Cette simplification pourrait alléger la charge administrative pour les prestataires, mais elle pourrait aussi soulever des questions sur la rigueur et la robustesse du cadre de régulation.
-3. **Maintien des obligations de lutte contre le blanchiment et le financement du terrorisme** :
-   - Les obligations en matière de lutte contre le blanchiment des capitaux et le financement du terrorisme, de gel des avoirs et d'interdiction de mise à disposition restent inchangées. Cela montre une continuité dans l'importance accordée à ces aspects critiques de la régulation financière.
-4. **Clarification des conditions de radiation** :
-   - Les conditions de radiation des prestataires par l'AMF sont maintenues, mais la nouvelle version semble les présenter de manière plus concise. Les motifs de radiation incluent toujours la demande du prestataire, l'inactivité prolongée, et le non-respect des obligations ou l'obtention de l'enregistrement par des moyens irréguliers.
-5. **Suppression de la suspension d'office par l'AMF** :
-   - La possibilité pour l'AMF de suspendre d'office l'enregistrement d'un prestataire en cas de menace grave et imminente pour la stabilité du marché des actifs numériques a été supprimée. Cette suppression pourrait réduire la capacité de l'AMF à intervenir rapidement en cas de risques systémiques.
-6. **Maintien de la coopération entre l'AMF et l'ACPR** :
-   - La coopération entre l'AMF et l'Autorité de contrôle prudentiel et de résolution (ACPR) est maintenue, notamment pour l'avis conforme nécessaire à l'enregistrement des prestataires. Cela souligne l'importance de la collaboration interinstitutionnelle dans la régulation des services financiers.
-En conclusion, la révision de l'article de loi semble viser une simplification et une réduction des exigences administratives pour les prestataires de services, tout en maintenant les obligations essentielles en matière de lutte contre le blanchiment et le financement du terrorisme. Toutefois, la suppression de certaines obligations spécifiques et de la capacité de suspension d'office par l'AMF pourrait avoir des implications sur la rigueur du cadre de régulation et la capacité de réponse rapide aux risques systémiques.</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, tant sur le fond que sur la forme, qui méritent une attention particulière.
-1. **Suppression de certaines exigences spécifiques** :
-   - La nouvelle version a supprimé les exigences détaillées relatives aux dispositifs de sécurité, de contrôle interne, de gestion des conflits d'intérêts, et de systèmes informatiques résilients et sécurisés (ancien 5°). Cette suppression pourrait indiquer une simplification des critères d'enregistrement ou un transfert de ces exigences vers d'autres régulations ou directives spécifiques.
-2. **Élimination des obligations spécifiques pour les prestataires du service mentionné au 1° de l'article L. 54-10-2** :
-   - Les obligations spécifiques telles que la conclusion de conventions avec les clients, l'établissement d'une politique de conservation, la restitution des actifs numériques, la ségrégation des détentions, et l'abstention d'usage des actifs numériques sans consentement (ancien 6°) ont été supprimées. Cela pourrait réduire la charge administrative et opérationnelle pour ces prestataires, mais pourrait aussi soulever des questions sur la protection des clients et la gestion des actifs numériques.
-3. **Suppression des obligations de communication et de gestion des réclamations** :
-   - Les obligations de fournir des informations claires, exactes et non trompeuses, d'avertir les clients des risques, de rendre publiques les politiques tarifaires, et de mettre en œuvre une politique de gestion des réclamations (ancien paragraphe sur la communication aux clients) ont été supprimées. Cette suppression pourrait affecter la transparence et la protection des consommateurs.
-4. **Réduction des pouvoirs de l'Autorité des marchés financiers (AMF)** :
-   - La nouvelle version ne mentionne plus la vérification par l'AMF de la sécurité des systèmes d'information des prestataires, ni la possibilité de solliciter l'avis de l'autorité mentionnée à l'article L. 2321-1 du code de la défense. Cela pourrait limiter la capacité de l'AMF à assurer la sécurité des systèmes d'information des prestataires.
-5. **Simplification de la procédure de suspension et de radiation** :
-   - La nouvelle version conserve les dispositions relatives à la suspension et à la radiation des prestataires, mais sans les détails spécifiques sur les conditions de menace grave et imminente pour la stabilité du marché des actifs numériques. Cela pourrait simplifier la procédure, mais aussi réduire la précision des critères d'intervention.
-6. **Maintien des obligations de déclaration et de communication** :
-   - Les obligations de déclaration auprès de l'AMF en cas de modification affectant le respect des obligations, ainsi que la possibilité pour l'AMF de radier les prestataires, sont maintenues. Cela assure une certaine continuité dans le contrôle et la régulation des prestataires.
-En conclusion, la révision de l'article de loi semble viser une simplification des exigences et des procédures pour les prestataires de services, tout en maintenant certaines obligations de base. Toutefois, cette simplification pourrait avoir des conséquences sur la protection des consommateurs et la sécurité des systèmes d'information, nécessitant une vigilance accrue de la part des régulateurs et des parties prenantes.</t>
+   - La nouvelle version a supprimé les obligations détaillées concernant les dispositifs de sécurité, de contrôle interne, de gestion des conflits d'intérêts, et de systèmes informatiques résilients et sécurisés (ancien 5°).
+   - Les obligations spécifiques aux prestataires fournissant le service mentionné au 1° de l'article L. 54-10-2, telles que la conclusion de conventions avec les clients, l'établissement d'une politique de conservation, la restitution des actifs numériques, la ségrégation des détentions, et l'usage des actifs numériques, ont également été supprimées (ancien 6°).
+2. **Clarification des obligations de lutte contre le blanchiment et le financement du terrorisme** :
+   - La nouvelle version maintient les exigences de conformité en matière de lutte contre le blanchiment des capitaux et le financement du terrorisme, mais simplifie la rédaction en supprimant les références détaillées aux articles spécifiques du code monétaire et financier.
+3. **Suppression des exigences de communication et de gestion des réclamations** :
+   - Les obligations de communication d'informations claires, exactes et non trompeuses, d'avertissement des risques associés aux actifs numériques, de publication des politiques tarifaires, et de gestion des réclamations des clients ont été supprimées.
+4. **Simplification de la procédure de suspension et de radiation** :
+   - La nouvelle version a supprimé la disposition permettant à l'Autorité des marchés financiers (AMF) de suspendre d'office l'enregistrement d'un prestataire en cas de menace grave et imminente pour la stabilité du marché des actifs numériques.
+   - Les conditions de radiation restent similaires, mais la nouvelle version a supprimé la mention spécifique de la procédure d'avis conforme de l'Autorité de contrôle prudentiel et de résolution (ACPR) pour la radiation.
+5. **Maintien des obligations de déclaration et de publication** :
+   - Les obligations de déclaration auprès de l'AMF en cas de modification affectant le respect des obligations et la publication de la liste des prestataires enregistrés par l'AMF sont maintenues.
+**Portée et conséquences** :
+- **Simplification et allègement des obligations** : La nouvelle version allège les obligations des prestataires en supprimant plusieurs exigences spécifiques, ce qui pourrait réduire la charge administrative et les coûts de conformité pour les prestataires.
+- **Maintien des exigences essentielles** : Les exigences essentielles en matière de lutte contre le blanchiment des capitaux et le financement du terrorisme sont maintenues, ce qui continue de garantir un certain niveau de sécurité et de conformité.
+- **Impact sur la protection des clients** : La suppression des obligations de communication d'informations et de gestion des réclamations pourrait avoir un impact sur la protection des clients, en réduisant la transparence et les recours disponibles pour les clients en cas de litige.
+En conclusion, la révision de l'article de loi semble viser à simplifier le cadre réglementaire pour les prestataires de services tout en maintenant les exigences essentielles de conformité, mais elle pourrait également réduire certaines protections pour les clients.</t>
         </is>
       </c>
     </row>
@@ -798,50 +804,28 @@
       <c r="V3" t="inlineStr">
         <is>
           <t>L'analyse des modifications apportées à cet article révèle plusieurs changements significatifs :
-1. **Suppression de la référence au règlement (UE) 2023/1114** : La nouvelle version de l'article ne fait plus mention du règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs. Cela simplifie le texte en supprimant les références spécifiques à la législation européenne, ce qui pourrait indiquer une volonté de se concentrer uniquement sur la réglementation nationale.
-2. **Réduction du champ d'application** : La nouvelle version de l'article se limite aux services mentionnés aux 1° à 4° de l'article L. 54-10-2, sans inclure les services sur crypto-actifs au sens du règlement européen. Cela pourrait signifier une restriction du champ d'application de l'article aux seuls services définis par la législation nationale.
-3. **Clarification des interdictions** : La nouvelle version précise que l'interdiction d'utiliser une dénomination, une raison sociale, une publicité ou tout autre procédé laissant croire à un enregistrement ou une autorisation s'applique spécifiquement aux prestataires des services mentionnés aux mêmes 1° et 4°. Cette précision renforce la clarté de l'article en définissant plus précisément les catégories de services concernés par cette interdiction.
-En résumé, les modifications apportées à cet article visent à simplifier et à clarifier le texte en supprimant les références à la législation européenne et en précisant les catégories de services concernés par les interdictions. Ces changements peuvent refléter une volonté de rendre la réglementation plus accessible et compréhensible pour les acteurs du marché.</t>
+1. **Suppression de la référence au règlement (UE) 2023/1114** : La nouvelle version de l'article ne fait plus mention du règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs. Cela pourrait indiquer une volonté de simplifier le texte en supprimant les références spécifiques à la législation européenne, ou une modification de la portée de l'article pour se concentrer uniquement sur la législation nationale.
+2. **Restriction des services concernés** : La nouvelle version de l'article se limite aux services mentionnés aux 1° à 4° de l'article L. 54-10-2, sans inclure les services sur crypto-actifs au sens du règlement européen. Cela pourrait signifier une restriction du champ d'application de l'article, se concentrant uniquement sur les services définis par la législation nationale.
+3. **Clarification des interdictions** : La nouvelle version précise que l'interdiction d'utiliser une dénomination, une raison sociale, une publicité ou tout autre procédé laissant croire à un enregistrement ou une autorisation s'applique spécifiquement aux prestataires des services mentionnés aux mêmes 1° et 4°. Cette précision pourrait viser à éviter toute ambiguïté quant aux services concernés par cette interdiction.
+En résumé, les modifications apportées à cet article semblent viser à simplifier et clarifier le texte, en se concentrant sur la législation nationale et en précisant les services concernés par les interdictions.</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>L'analyse des modifications apportées à l'article de loi révèle plusieurs changements significatifs.
-1. **Référence au règlement (UE) 2023/1114** :
-   - **Ancienne version** : L'ancienne version faisait explicitement référence au règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs, en intégrant les services sur crypto-actifs définis par ce règlement.
-   - **Nouvelle version** : La nouvelle version a supprimé toute mention de ce règlement européen. Cela pourrait indiquer une volonté de simplifier le texte ou de se dissocier des spécificités du règlement européen pour se concentrer uniquement sur la législation nationale.
-2. **Portée des services concernés** :
-   - **Ancienne version** : La mention des services sur crypto-actifs au sens du règlement (UE) 2023/1114 élargissait potentiellement le champ d'application de l'interdiction à des services définis par le droit européen.
-   - **Nouvelle version** : En supprimant cette référence, la nouvelle version restreint l'interdiction aux services mentionnés aux 1° à 4° de l'article L. 54-10-2, ce qui pourrait limiter la portée de l'interdiction aux services spécifiquement définis par la législation nationale.
-3. **Conditions d'enregistrement et d'autorisation** :
-   - **Ancienne version** : L'ancienne version exigeait que les prestataires soient soit enregistrés par l'Autorité des marchés financiers, soit autorisés à fournir des services sur crypto-actifs conformément à l'article 59 du règlement (UE) 2023/1114.
-   - **Nouvelle version** : La nouvelle version ne mentionne plus l'autorisation conformément à l'article 59 du règlement européen, se concentrant uniquement sur l'enregistrement préalable par l'Autorité des marchés financiers. Cela simplifie les conditions d'exercice en supprimant une double exigence potentielle.
-4. **Interdiction d'utilisation de dénominations trompeuses** :
-   - **Ancienne version** : L'interdiction s'appliquait à toute personne n'ayant pas la qualité de prestataire des services enregistré ou autorisé.
-   - **Nouvelle version** : L'interdiction s'applique désormais à toute personne n'ayant pas la qualité de prestataire des services mentionnés aux mêmes 1° et 4°. Cette modification pourrait restreindre l'interdiction à un sous-ensemble spécifique de services, bien que cela ne soit pas entièrement clair sans le texte complet de l'article L. 54-10-2.
-**Conséquences potentielles** :
-- La suppression des références au règlement européen pourrait simplifier la compréhension et l'application de la loi, mais pourrait également limiter la portée de l'interdiction aux seules définitions nationales.
-- La concentration sur l'enregistrement par l'Autorité des marchés financiers pourrait réduire les obligations administratives pour les prestataires de services.
-- La modification de l'interdiction d'utilisation de dénominations trompeuses pourrait nécessiter une clarification supplémentaire pour comprendre pleinement son impact.
-En conclusion, les modifications apportées semblent viser une simplification et une clarification des exigences légales, bien que certaines implications, notamment la portée exacte des services concernés, nécessitent une analyse plus approfondie du contexte législatif complet.</t>
+          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications significatives.
+Premièrement, la nouvelle version de l'article a supprimé toute référence explicite au règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs. Cette suppression pourrait indiquer une volonté de simplifier le texte ou de le rendre plus autonome par rapport à la législation européenne spécifique sur les crypto-actifs.
+Deuxièmement, la nouvelle version restreint l'interdiction d'exercer la profession de prestataire de services uniquement aux services mentionnés aux 1° à 4° de l'article L. 54-10-2, sans mentionner les services sur crypto-actifs au sens du règlement européen. Cela pourrait avoir pour effet de limiter l'application de cette interdiction à un cadre plus national, plutôt que de l'étendre aux définitions et exigences européennes.
+Troisièmement, la nouvelle version précise que l'interdiction d'utiliser une dénomination, une raison sociale, une publicité ou tout autre procédé trompeur s'applique spécifiquement aux prestataires des services mentionnés aux mêmes 1° et 4°. Cette précision pourrait viser à clarifier et restreindre les cas d'utilisation abusive de titres ou de qualifications, réduisant ainsi les risques de confusion pour le public.
+En conclusion, les modifications apportées semblent viser à simplifier et à clarifier le texte, en réduisant les références externes et en précisant les interdictions. Ces changements pourraient avoir pour conséquence de rendre la réglementation plus accessible et compréhensible, tout en recentrant son application sur un cadre national spécifique.</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>L'analyse des modifications apportées à l'article de loi révèle plusieurs changements significatifs.
-1. **Réduction de la portée réglementaire** :
-   - **Ancienne version** : La réglementation s'appliquait aux prestataires de services mentionnés aux 1° à 4° de l'article L. 54-10-2 ainsi qu'aux services sur crypto-actifs au sens du règlement (UE) 2023/1114.
-   - **Nouvelle version** : La référence aux services sur crypto-actifs au sens du règlement (UE) 2023/1114 a été supprimée. Désormais, la réglementation ne s'applique qu'aux prestataires de services mentionnés aux 1° à 4° de l'article L. 54-10-2.
-2. **Simplification des exigences d'enregistrement** :
-   - **Ancienne version** : Les prestataires devaient être soit enregistrés par l'Autorité des marchés financiers, soit autorisés à fournir des services sur crypto-actifs conformément à l'article 59 du règlement (UE) 2023/1114.
-   - **Nouvelle version** : L'exigence d'autorisation conformément à l'article 59 du règlement (UE) 2023/1114 a été supprimée. Désormais, seule l'enregistrement préalable par l'Autorité des marchés financiers est requis.
-3. **Clarification des interdictions** :
-   - **Ancienne version** : L'interdiction d'utiliser une dénomination, une raison sociale, une publicité ou tout autre procédé laissant croire à un enregistrement ou une autorisation s'appliquait à toute personne n'ayant pas la qualité de prestataire des services enregistré ou autorisé.
-   - **Nouvelle version** : Cette interdiction s'applique spécifiquement aux prestataires des services mentionnés aux 1° et 4° de l'article L. 54-10-2, sans mention de l'autorisation.
-**Portée et conséquences** :
-- **Portée** : La nouvelle version restreint la portée de la réglementation en excluant les services sur crypto-actifs définis par le règlement (UE) 2023/1114. Elle simplifie également les exigences en matière d'enregistrement, en supprimant la nécessité d'une autorisation spécifique.
-- **Conséquences** : Ces modifications pourraient réduire la complexité administrative pour les prestataires de services mentionnés aux 1° à 4° de l'article L. 54-10-2, mais elles pourraient également limiter la protection des consommateurs en excluant certains services sur crypto-actifs de la réglementation.
-En conclusion, la nouvelle version de l'article de loi simplifie les exigences d'enregistrement et réduit la portée de la réglementation, ce qui pourrait avoir des implications à la fois positives et négatives pour les prestataires de services et les consommateurs.</t>
+          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables.
+Premièrement, la nouvelle version a supprimé toute référence au règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs. Cette suppression simplifie le texte en se concentrant uniquement sur les services mentionnés aux 1° à 4° de l'article L. 54-10-2, sans faire référence aux services sur crypto-actifs définis par le règlement européen.
+Deuxièmement, la nouvelle version omet la mention de l'autorisation de fournir des services sur crypto-actifs conformément à l'article 59 du règlement (UE) 2023/1114. Désormais, l'exigence se limite à l'enregistrement préalable par l'Autorité des marchés financiers (AMF), ce qui pourrait indiquer une volonté de centraliser et de simplifier le processus de régulation sous l'égide de l'AMF.
+Troisièmement, la nouvelle version restreint l'interdiction d'utiliser une dénomination, une raison sociale, une publicité ou tout autre procédé laissant croire à une qualité enregistrée ou autorisée uniquement aux prestataires des services mentionnés aux 1° et 4° de l'article L. 54-10-2. L'ancienne version s'appliquait à toute personne n'ayant pas la qualité de prestataire des services enregistré ou autorisé, ce qui était plus large.
+En termes de portée et de conséquences, ces modifications semblent viser à clarifier et à simplifier le cadre réglementaire applicable aux prestataires de services sur crypto-actifs, en réduisant les références croisées avec le droit européen et en recentrant les exigences sur l'enregistrement par l'AMF. Cela pourrait potentiellement faciliter la compréhension et la mise en conformité pour les acteurs du marché, tout en maintenant des mesures de protection contre les pratiques trompeuses.</t>
         </is>
       </c>
     </row>
@@ -945,26 +929,48 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>L'analyse des modifications apportées à l'article révèle plusieurs changements notables :
-1. **Modification de l'autorité consultative** :
-   - Ancienne version : L'Autorité des marchés financiers (AMF) pouvait solliciter l'avis de l'autorité mentionnée à l'article L. 2321-1 du code de la défense.
-   - Nouvelle version : L'AMF peut solliciter l'avis de l'autorité nationale en charge de la sécurité des systèmes d'information. 
-   - **Analyse** : Ce changement précise et actualise l'autorité compétente en matière de sécurité des systèmes d'information, probablement pour refléter une réorganisation administrative ou une clarification des compétences.
-2. **Modification du seuil de détention de capital ou de droits de vote** :
-   - Ancienne version : Les personnes physiques détenant plus de 10 % du capital ou des droits de vote du prestataire devaient justifier de leur honorabilité et compétence.
-   - Nouvelle version : Ce seuil est porté à plus de 25 %.
-   - **Analyse** : L'augmentation du seuil de détention de capital ou de droits de vote de 10 % à 25 % pourrait viser à alléger les obligations de justification pour les petits actionnaires, concentrant ainsi les exigences de contrôle sur les actionnaires majoritaires ou significatifs.
-3. **Suppression de la référence à l'article L. 2321-1 du code de la défense** :
-   - Ancienne version : Référence explicite à l'article L. 2321-1 du code de la défense.
-   - Nouvelle version : Référence remplacée par une mention plus générale de l'autorité nationale en charge de la sécurité des systèmes d'information.
-   - **Analyse** : Cette modification pourrait viser à simplifier la rédaction et à éviter des références spécifiques qui pourraient devenir obsolètes ou nécessiter des mises à jour fréquentes.
-4. **Maintien des autres obligations et exigences** :
-   - Les autres obligations et exigences des prestataires agréés restent inchangées entre les deux versions.
-   - **Analyse** : La continuité des autres dispositions montre une stabilité réglementaire dans les exigences de base pour les prestataires de services sur actifs numériques, assurant ainsi une certaine prévisibilité et sécurité juridique pour les acteurs du marché.
-En conclusion, les modifications apportées à l'article visent principalement à actualiser et clarifier certaines dispositions, notamment en matière de sécurité des systèmes d'information et de seuil de détention de capital, tout en maintenant les exigences fondamentales pour les prestataires de services sur actifs numériques.</t>
+          <t>L'analyse des modifications apportées à l'article révèle plusieurs ajustements notables :
+1. **Autorité de vérification de la sécurité des systèmes d'information** :
+   - **Ancienne version** : L'Autorité des marchés financiers (AMF) pouvait solliciter l'avis de l'autorité mentionnée à l'article L. 2321-1 du code de la défense.
+   - **Nouvelle version** : L'AMF peut solliciter l'avis de l'autorité nationale en charge de la sécurité des systèmes d'information. Ce changement clarifie et potentiellement élargit l'autorité consultée pour la sécurité des systèmes d'information.
+2. **Seuil de détention de capital ou de droits de vote** :
+   - **Ancienne version** : Les personnes physiques détenant plus de 10 % du capital ou des droits de vote du prestataire devaient justifier de leur honorabilité et compétence.
+   - **Nouvelle version** : Ce seuil est relevé à plus de 25 %. Cela signifie que les exigences de justification d'honorabilité et de compétence s'appliquent désormais à un nombre potentiellement réduit de détenteurs de capital ou de droits de vote, ce qui pourrait alléger les obligations de certains investisseurs.
+3. **Terminologie et précision** :
+   - **Ancienne version** : Référence à l'article L. 2321-1 du code de la défense.
+   - **Nouvelle version** : Référence plus générale à l'autorité nationale en charge de la sécurité des systèmes d'information. Cette modification peut viser à simplifier et à rendre plus flexible la désignation de l'autorité compétente.
+4. **Autres modifications mineures** :
+   - Les autres sections de l'article semblent inchangées, à l'exception de quelques ajustements de formulation qui n'affectent pas substantiellement le contenu ou les obligations des prestataires.
+En conclusion, les modifications apportées visent principalement à clarifier certaines dispositions, à ajuster les seuils de détention de capital pour les obligations de justification d'honorabilité et de compétence, et à préciser les autorités compétentes en matière de sécurité des systèmes d'information. Ces ajustements peuvent avoir des implications pratiques pour les prestataires de services sur actifs numériques, notamment en termes de conformité et de gouvernance.</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
+        <is>
+          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, principalement de nature technique et de précision, qui peuvent avoir des implications significatives pour les prestataires de services sur actifs numériques.
+1. **Autorité de vérification de la sécurité des systèmes d'information** :
+   - **Ancienne version** : L'Autorité des marchés financiers (AMF) pouvait solliciter l'avis de l'autorité mentionnée à l'article L. 2321-1 du code de la défense.
+   - **Nouvelle version** : L'AMF peut solliciter l'avis de l'autorité nationale en charge de la sécurité des systèmes d'information.
+   - **Conséquence** : Cette modification clarifie et potentiellement élargit le champ des autorités compétentes en matière de sécurité des systèmes d'information, ce qui pourrait renforcer la rigueur des contrôles de sécurité.
+2. **Seuil de détention de capital ou de droits de vote** :
+   - **Ancienne version** : Les personnes physiques détenant plus de 10 % du capital ou des droits de vote du prestataire doivent justifier de leur honorabilité et compétence.
+   - **Nouvelle version** : Ce seuil est porté à plus de 25 %.
+   - **Conséquence** : Cette augmentation du seuil pourrait réduire le nombre de personnes soumises à cette exigence, simplifiant ainsi les obligations de justification pour les prestataires.
+3. **Références légales et terminologiques** :
+   - **Ancienne version** : Référence à l'article L. 2321-1 du code de la défense.
+   - **Nouvelle version** : Référence à l'autorité nationale en charge de la sécurité des systèmes d'information.
+   - **Conséquence** : Cette mise à jour des références légales assure une meilleure adéquation avec les structures administratives actuelles et peut améliorer la clarté et l'application de la loi.
+4. **Traitement des réclamations** :
+   - **Ancienne version** : Les prestataires doivent assurer un traitement rapide des réclamations.
+   - **Nouvelle version** : Les prestataires doivent en assurer un traitement rapide.
+   - **Conséquence** : Cette légère modification de formulation n'affecte pas substantiellement les obligations des prestataires mais peut être vue comme une clarification linguistique.
+5. **Publication des politiques tarifaires et des informations transactionnelles** :
+   - **Ancienne version** : Les prestataires doivent rendre publiques leurs politiques tarifaires et les détails des transactions.
+   - **Nouvelle version** : Les obligations de publication restent inchangées.
+   - **Conséquence** : La continuité dans ces obligations souligne l'importance de la transparence pour les prestataires de services sur actifs numériques.
+En conclusion, les modifications apportées à l'article de loi visent principalement à clarifier et à actualiser certaines dispositions, tout en ajustant les seuils de détention de capital pour les obligations de justification. Ces changements peuvent simplifier certaines obligations pour les prestataires tout en renforçant les exigences de sécurité et de transparence. Les prestataires devront s'assurer de leur conformité avec ces nouvelles dispositions pour éviter tout risque de retrait d'agrément par l'AMF.</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, principalement de nature technique et de précision, qui peuvent avoir des implications significatives pour les prestataires de services sur actifs numériques.
 1. **Modification de l'autorité consultative** :
@@ -973,32 +979,15 @@
    - **Conséquence** : Cette modification précise l'autorité compétente en matière de sécurité des systèmes d'information, ce qui pourrait améliorer la clarté et l'efficacité des consultations.
 2. **Seuil de détention de capital ou de droits de vote** :
    - **Ancienne version** : Les personnes physiques détenant plus de 10 % du capital ou des droits de vote du prestataire devaient justifier de leur honorabilité et compétence.
-   - **Nouvelle version** : Ce seuil est relevé à plus de 25 %.
-   - **Conséquence** : Cette augmentation du seuil pourrait réduire le nombre de personnes soumises à cette exigence, potentiellement simplifiant la gestion pour les prestataires tout en concentrant les vérifications sur les détenteurs de parts plus significatives.
+   - **Nouvelle version** : Ce seuil est porté à plus de 25 %.
+   - **Conséquence** : Cette augmentation du seuil pourrait réduire le nombre de personnes soumises à cette exigence, potentiellement simplifiant la gestion administrative pour les prestataires tout en concentrant les contrôles sur les détenteurs de parts plus significatives.
 3. **Terminologie et précision linguistique** :
    - **Ancienne version** : Utilisation de termes comme "l'autorité mentionnée à l'article L. 2321-1 du code de la défense".
-   - **Nouvelle version** : Utilisation de termes plus directs comme "l'autorité nationale en charge de la sécurité des systèmes d'information".
-   - **Conséquence** : Une terminologie plus précise et directe peut faciliter la compréhension et l'application des dispositions légales.
+   - **Nouvelle version** : Utilisation de termes plus précis comme "l'autorité nationale en charge de la sécurité des systèmes d'information".
+   - **Conséquence** : Une terminologie plus précise peut réduire les ambiguïtés et améliorer la compréhension et l'application des dispositions légales.
 4. **Autres ajustements mineurs** :
-   - Les autres modifications sont principalement des ajustements de formulation et de précision, sans changement substantiel des obligations des prestataires.
+   - Les autres modifications sont principalement des ajustements de formulation et de structure, sans changement substantiel des obligations des prestataires.
 En conclusion, les modifications apportées à l'article de loi visent principalement à clarifier et à préciser certaines dispositions, notamment en ce qui concerne les autorités compétentes et les seuils de détention de capital. Ces ajustements devraient améliorer la clarté réglementaire et potentiellement alléger certaines obligations administratives pour les prestataires, tout en maintenant un cadre rigoureux pour la sécurité et la transparence des services sur actifs numériques.</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>L'analyse des modifications apportées à l'article de loi révèle plusieurs ajustements notables, principalement dans les sections I, VI et quelques clarifications mineures dans d'autres sections.
-1. **Section I** :
-   - La mention de l'autorité nationale en charge de la sécurité des systèmes d'information remplace l'article L. 2321-1 du code de la défense. Ce changement pourrait indiquer une volonté de centraliser ou de clarifier les responsabilités en matière de sécurité des systèmes d'information.
-2. **Section VI** :
-   - Le seuil de détention de capital ou de droits de vote par des personnes physiques a été modifié de "plus de 10 %" à "plus de 25 %". Cette modification pourrait avoir des implications significatives sur le contrôle et la surveillance des prestataires, en réduisant le nombre de personnes physiques soumises à des exigences strictes d'honorabilité et de compétence.
-   - Les autres obligations de cette section restent inchangées, mais cette modification du seuil de détention pourrait potentiellement réduire la charge administrative pour les prestataires tout en maintenant un niveau de contrôle adéquat.
-3. **Autres sections** :
-   - Les sections II, III, V, VII et VIII ne montrent pas de changements substantiels dans leur contenu. Les obligations et les procédures restent globalement les mêmes, assurant la continuité des exigences réglementaires pour les prestataires de services sur actifs numériques.
-**Portée et conséquences** :
-- **Clarification des responsabilités** : La modification de la référence à l'autorité nationale en charge de la sécurité des systèmes d'information dans la section I pourrait améliorer la clarté et l'efficacité de la supervision en matière de sécurité des systèmes d'information.
-- **Seuil de détention de capital** : L'augmentation du seuil de détention de capital ou de droits de vote de 10 % à 25 % dans la section VI pourrait alléger les exigences pour certains investisseurs, tout en maintenant un cadre de surveillance rigoureux pour les principaux actionnaires.
-- **Stabilité réglementaire** : Le maintien des autres obligations et procédures assure une stabilité réglementaire pour les prestataires, ce qui est crucial pour la confiance et la prévisibilité dans le secteur des actifs numériques.
-En conclusion, les modifications apportées à cet article de loi semblent viser à clarifier certaines responsabilités et à ajuster les seuils de contrôle sans compromettre la rigueur de la surveillance réglementaire. Ces ajustements devraient permettre une meilleure application des règles tout en réduisant potentiellement la charge administrative pour certains acteurs du marché.</t>
         </is>
       </c>
     </row>
@@ -1102,29 +1091,24 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>L'analyse des modifications apportées à cet article révèle un changement mineur mais significatif. La nouvelle version de l'article étend l'interdiction de tenir des comptes ou des livrets d'épargne anonymes aux personnes mentionnées aux 1° à 7° bis de l'article L. 561-2, alors que l'ancienne version se limitait aux personnes mentionnées aux 1° à 7°. 
-Cela signifie que le champ d'application de cette interdiction a été élargi pour inclure des catégories supplémentaires de personnes ou entités, spécifiquement celles mentionnées au 7° bis. Cette modification vise probablement à renforcer les mesures de lutte contre le blanchiment d'argent et le financement du terrorisme en incluant davantage de personnes ou d'entités sous cette interdiction.</t>
+          <t>L'analyse des modifications apportées à cet article révèle un changement dans la portée des personnes concernées par l'interdiction de tenir des comptes ou livrets d'épargne anonymes. 
+L'ancienne version de l'article faisait référence aux personnes mentionnées aux 1° à 7° de l'article L. 561-2. La nouvelle version étend cette référence aux personnes mentionnées aux 1° à 7° bis du même article. 
+Cela signifie que la nouvelle version inclut potentiellement des catégories supplémentaires de personnes ou entités qui sont désormais soumises à cette interdiction. Le terme "7° bis" suggère l'ajout d'une nouvelle catégorie ou sous-catégorie dans l'article L. 561-2, élargissant ainsi le champ d'application de la réglementation.
+En résumé, la modification vise à inclure davantage de personnes ou entités dans l'interdiction de tenir des comptes ou livrets d'épargne anonymes, renforçant ainsi les mesures de lutte contre le blanchiment d'argent et le financement du terrorisme.</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle une modification spécifique dans la référence aux personnes concernées. 
-Ancienne version : Les personnes mentionnées aux 1° à 7° de l'article L. 561-2.
-Nouvelle version : Les personnes mentionnées aux 1° à 7° bis de l'article L. 561-2.
-Le changement principal réside dans l'ajout de la mention "7° bis" dans la nouvelle version. Cela indique que la portée de l'interdiction de tenir des comptes ou livrets d'épargne anonymes a été étendue pour inclure une nouvelle catégorie de personnes ou entités, spécifiquement celles mentionnées au 7° bis de l'article L. 561-2.
-Conséquences :
-1. **Extension de la portée** : La modification élargit le champ d'application de l'interdiction, ce qui pourrait impliquer une volonté législative de renforcer les mesures de lutte contre l'anonymat dans les transactions financières.
-2. **Conformité accrue** : Les entités nouvellement incluses devront se conformer à cette interdiction, ce qui pourrait nécessiter des ajustements dans leurs pratiques de gestion des comptes et livrets d'épargne.
-3. **Renforcement de la transparence** : En élargissant les catégories de personnes concernées, la loi vise probablement à accroître la transparence financière et à prévenir les activités illicites telles que le blanchiment d'argent.
-En conclusion, la révision de l'article L. 561-2 par l'ajout de la mention "7° bis" renforce les obligations de transparence financière en élargissant l'interdiction de tenir des comptes ou livrets d'épargne anonymes à une nouvelle catégorie de personnes ou entités.</t>
+          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle une modification spécifique dans la référence aux personnes concernées. L'ancienne version mentionne les personnes aux 1° à 7° de l'article L. 561-2, tandis que la nouvelle version étend cette référence aux personnes aux 1° à 7° bis du même article.
+Le principal changement réside donc dans l'inclusion des personnes visées par le 7° bis, qui n'étaient pas couvertes par la version antérieure. Cette extension implique que les nouvelles catégories de personnes ajoutées par le 7° bis sont désormais également interdites de tenir des comptes ou livrets d'épargne anonymes.
+La portée de cette modification est significative car elle élargit le champ d'application de l'interdiction, renforçant ainsi les mesures de lutte contre l'anonymat dans les transactions financières. Les conséquences potentielles incluent une plus grande transparence et une meilleure traçabilité des fonds, ce qui peut contribuer à la prévention du blanchiment d'argent et du financement du terrorisme. Toutefois, sans le texte exact du 7° bis, il est difficile de déterminer précisément quelles nouvelles catégories de personnes sont concernées.</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle un changement notable dans la portée des personnes concernées par l'interdiction de tenir des comptes ou livrets d'épargne anonymes. 
-Dans l'ancienne version, l'interdiction s'appliquait aux personnes mentionnées aux 1° à 7° de l'article L. 561-2. La nouvelle version étend cette interdiction aux personnes mentionnées aux 1° à 7° bis du même article. 
-Ce changement implique une extension du champ d'application de la loi, incluant désormais des catégories supplémentaires de personnes ou entités. La mention "7° bis" suggère l'ajout d'une nouvelle catégorie ou sous-catégorie dans l'article L. 561-2, ce qui pourrait refléter une volonté législative d'inclure de nouvelles entités ou professions dans le cadre de cette interdiction, potentiellement en réponse à des évolutions dans les pratiques financières ou à des besoins accrus de régulation.
-Les conséquences de cette modification sont significatives : les nouvelles entités ou personnes incluses dans le 7° bis devront se conformer à cette interdiction, ce qui pourrait nécessiter des ajustements dans leurs pratiques de gestion des comptes et livrets d'épargne. Cela renforce également le cadre de lutte contre l'anonymat dans les transactions financières, contribuant potentiellement à une meilleure traçabilité et à la prévention des activités illicites.</t>
+          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle une modification spécifique dans la référence aux personnes concernées. L'ancienne version mentionne les personnes aux 1° à 7° de l'article L. 561-2, tandis que la nouvelle version étend cette référence aux personnes aux 1° à 7° bis du même article.
+Le principal changement réside donc dans l'inclusion des personnes visées par le 7° bis, qui n'étaient pas couvertes par la version antérieure. Cette extension pourrait indiquer une volonté législative d'élargir le champ des entités ou individus soumis à l'interdiction de tenir des comptes ou livrets d'épargne anonymes. 
+La portée de cette modification est significative, car elle renforce les mesures de transparence et de lutte contre le blanchiment d'argent et le financement du terrorisme en incluant un groupe supplémentaire de personnes ou entités dans les obligations de non-anonymat des comptes et livrets d'épargne. Les conséquences pratiques de cette révision pourraient impliquer une mise en conformité accrue pour les nouvelles entités concernées, nécessitant des ajustements dans leurs pratiques de gestion des comptes et livrets d'épargne.</t>
         </is>
       </c>
     </row>
@@ -1228,16 +1212,23 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>L'analyse des modifications apportées à l'article révèle plusieurs changements notables :
-1. **Suppression des Prestataires de Services sur Crypto-Actifs** : La nouvelle version de l'article a supprimé les références spécifiques aux prestataires de services sur crypto-actifs, qui étaient auparavant mentionnés dans les points 1° quater, 7° bis, 7° quater, et 7° ter. Cela pourrait indiquer une révision ou une réorganisation de la réglementation applicable à ces entités.
-2. **Révision des Références Législatives** : Certaines références législatives ont été mises à jour. Par exemple, les articles L. 721-7 et L. 721-18 du code monétaire et financier ont été remplacés par les articles L. 711-2 et L. 712-4 respectivement. Cela peut refléter des modifications ou des renumérotations dans le code monétaire et financier.
-3. **Ajout et Suppression de Catégories** :
-   - **Ajout** : Les "conseillers en investissements participatifs" ont été ajoutés à la liste des entités assujetties (point 6°).
-   - **Suppression** : Les "commissaires-priseurs judiciaires" ont été ajoutés à la liste des professions juridiques assujetties (point 13°), tandis que les "commissaires de justice" ont été supprimés.
-4. **Clarification des Obligations** : La nouvelle version semble avoir simplifié et clarifié certaines obligations en supprimant des redondances et en consolidant les catégories. Par exemple, les références aux prestataires de services sur crypto-actifs ont été regroupées ou supprimées pour éviter les répétitions.
-5. **Réduction du Nombre de Points** : Le nombre total de points a été réduit de 20 à 19, ce qui peut indiquer une simplification ou une consolidation des catégories d'entités assujetties.
-6. **Mise à Jour des Seuils et Conditions** : Les seuils et conditions pour certaines activités, comme la négociation d'œuvres d'art et d'antiquités, restent inchangés, mais leur formulation a été légèrement modifiée pour plus de clarté.
-En résumé, les modifications apportées à l'article visent principalement à simplifier et clarifier les obligations des entités assujetties, à mettre à jour les références législatives, et à réorganiser certaines catégories pour éviter les redondances. Les changements reflètent également une possible révision de la réglementation applicable aux prestataires de services sur crypto-actifs.</t>
+          <t>L'analyse des modifications entre l'ancienne et la nouvelle version de l'article révèle plusieurs changements notables :
+1. **Suppression de certaines catégories** : 
+   - Les prestataires de services sur crypto-actifs ayant leur siège social dans un autre État membre de l'Union européenne ou partie à l'Espace économique européen (ancien 1° quater) ont été supprimés.
+   - Les prestataires de services autorisés à fournir des services sur crypto-actifs conformément à l'article 59 du règlement (UE) 2023/1114 (ancien 7° bis b) ont été supprimés.
+   - Les conseillers en investissements financiers, dépositaires centraux et sociétés de gestion de placements collectifs autorisés à fournir des services sur crypto-actifs (ancien 7° quater b) ont été supprimés.
+   - Les gestionnaires de crédits (ancien 20°) ont été supprimés.
+2. **Ajout de nouvelles catégories** :
+   - Les émetteurs de jetons ayant obtenu le visa mentionné à l'article L. 552-4 (nouveau 7° ter) ont été ajoutés.
+3. **Modifications de terminologie et de références légales** :
+   - Les références aux articles du code monétaire et financier ont été mises à jour pour refléter les modifications législatives récentes.
+   - Les termes "commissaires de justice" ont été remplacés par "huissiers de justice" et "commissaires-priseurs judiciaires" (nouveau 13°).
+4. **Clarifications et précisions** :
+   - La nouvelle version apporte des clarifications sur les catégories de personnes assujetties, notamment en ce qui concerne les intermédiaires en financement participatif et les conseillers en investissements participatifs.
+   - Les références aux articles spécifiques du code des assurances, du code de la sécurité sociale, du code de la mutualité, et du code de commerce ont été mises à jour pour plus de précision.
+5. **Réorganisation et simplification** :
+   - La nouvelle version réorganise certaines catégories pour une meilleure lisibilité et simplification, notamment en regroupant les catégories similaires et en supprimant les redondances.
+En conclusion, les modifications apportées visent à clarifier, simplifier et mettre à jour les références légales et les catégories de personnes assujetties aux obligations prévues par les dispositions des sections 2 à 7 du chapitre concerné. Ces changements reflètent les évolutions législatives récentes et les besoins de mise en conformité avec les règlements européens.</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1247,41 +1238,41 @@
    - La nouvelle version a supprimé les prestataires de services sur crypto-actifs ayant leur siège social dans un autre État membre de l'Union européenne ou partie à l'Espace économique européen (ancien 1° quater).
    - Les prestataires de services sur crypto-actifs au sens de l'article L. 525-8 ont également été retirés de cette catégorie.
    - Les prestataires de services autorisés à fournir des services sur crypto-actifs conformément à l'article 59 du règlement (UE) 2023/1114 ont été supprimés (ancien 7° bis b).
-   - Les émetteurs de jetons ayant obtenu le visa mentionné à l'article L. 552-4 ont été réintroduits sous une nouvelle catégorie (nouveau 7° ter).
-2. **Réorganisation et clarification** :
+2. **Ajout et modification de catégories** :
+   - Les émetteurs de jetons ayant obtenu le visa mentionné à l'article L. 552-4 sont désormais inclus (nouveau 7° ter).
+   - Les prestataires agréés au titre de l'article L. 54-10-5 sont maintenus, mais la référence aux prestataires mentionnés au 7° bis a été clarifiée (nouveau 7° quater).
+3. **Réorganisation et clarification** :
    - Les références aux articles du code monétaire et financier ont été mises à jour pour refléter les modifications législatives récentes.
-   - Les institutions de retraite professionnelle supplémentaire mentionnées à l'article L. 942-1 du code de la sécurité sociale ont été maintenues, mais leur position dans la liste a été clarifiée.
-   - Les intermédiaires en financement participatif et les conseillers en investissements participatifs ont été regroupés pour une meilleure lisibilité (nouveau 6°).
-3. **Ajouts et précisions** :
-   - Les conseillers en investissements financiers et les intermédiaires habilités mentionnés à l'article L. 211-4 ont été explicitement inclus dans la nouvelle version.
-   - Les prestataires de services d'investissement ayant leur siège social dans un autre État membre de l'Union européenne sont maintenus, mais avec une référence mise à jour (nouveau 6° bis).
-   - Les personnes exerçant l'activité de domiciliation et les agents sportifs sont maintenus, mais avec des références législatives mises à jour.
-4. **Suppression de certaines catégories spécifiques** :
-   - Les gestionnaires de crédits (ancien 20°) ont été supprimés de la nouvelle version.
-   - Les caisses des règlements pécuniaires des avocats sont maintenues, mais leur position dans la liste a été ajustée.
-5. **Conséquences potentielles** :
-   - La suppression de certaines catégories, notamment les prestataires de services sur crypto-actifs, pourrait réduire la portée des obligations pour ces entités, simplifiant ainsi leur cadre réglementaire.
-   - La réorganisation et la clarification des catégories devraient améliorer la lisibilité et l'application de la loi, facilitant la compréhension pour les entités assujetties.
-   - Les ajouts et précisions apportés aux catégories existantes renforcent la couverture réglementaire, notamment en ce qui concerne les conseillers en investissements et les intermédiaires habilités.
-En conclusion, les modifications apportées à cet article de loi visent principalement à clarifier, réorganiser et mettre à jour les références législatives, tout en supprimant certaines catégories spécifiques pour simplifier le cadre réglementaire. Ces changements devraient améliorer la lisibilité et l'application de la loi, tout en ajustant la portée des obligations pour certaines entités.</t>
+   - Les institutions de retraite professionnelle supplémentaire et les mutuelles ou unions de retraite professionnelle supplémentaire sont maintenues, mais les références aux articles correspondants ont été ajustées pour plus de clarté.
+4. **Suppression de certaines entités** :
+   - Les gestionnaires de crédits (ancien 20°) ont été supprimés de la liste des personnes assujetties.
+5. **Mise à jour des références législatives** :
+   - Les références aux articles du code des assurances, du code de la sécurité sociale, et du code de la mutualité ont été actualisées pour correspondre aux nouvelles dispositions législatives.
+6. **Conséquences potentielles** :
+   - La suppression des prestataires de services sur crypto-actifs et des gestionnaires de crédits pourrait réduire la portée de la réglementation pour ces entités, potentiellement allégeant leurs obligations de conformité.
+   - L'inclusion des émetteurs de jetons avec visa pourrait renforcer la surveillance et la régulation des offres de jetons, augmentant la transparence et la protection des investisseurs.
+En conclusion, les modifications apportées visent principalement à clarifier et actualiser les références législatives, tout en ajustant la portée des entités assujetties aux obligations réglementaires. Ces changements reflètent une adaptation aux évolutions du marché financier et des technologies émergentes, notamment en matière de crypto-actifs.</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
           <t>L'analyse des modifications apportées à l'article de loi révèle plusieurs changements notables, tant sur le fond que sur la forme, qui méritent une attention particulière.
-1. **Suppression des Prestataires de Services sur Crypto-Actifs** :
-   La nouvelle version de l'article a supprimé les références explicites aux prestataires de services sur crypto-actifs, qui étaient auparavant mentionnés dans les points 1° quater, 7° bis, et 7° quater. Cette suppression pourrait indiquer un changement de cadre réglementaire ou une réallocation de ces obligations à d'autres dispositions législatives.
-2. **Ajout des Émetteurs de Jetons** :
-   Un ajout significatif est l'introduction du point 7° ter, qui inclut désormais les émetteurs de jetons ayant obtenu un visa conformément à l'article L. 552-4. Cela montre une reconnaissance et une régulation accrue des activités liées aux offres initiales de jetons (ICO), renforçant ainsi la surveillance des transactions en crypto-actifs.
-3. **Modification des Références Législatives** :
-   Plusieurs références législatives ont été mises à jour pour refléter les modifications dans d'autres parties du code. Par exemple, les articles L. 721-7 et L. 721-18 ont été remplacés par L. 711-2 et L. 712-4 respectivement. Ces changements visent à harmoniser les références et à assurer la cohérence législative.
-4. **Clarification et Simplification** :
-   La nouvelle version a supprimé certaines redondances et clarifié les catégories d'entités assujetties. Par exemple, les prestataires de services d'investissement et les sociétés de gestion de placements collectifs sont désormais regroupés de manière plus concise, ce qui simplifie la lecture et l'application de la loi.
-5. **Réduction du Nombre de Catégories** :
-   Le nombre total de catégories d'entités assujetties a été réduit de 20 à 19. Cette réduction pourrait indiquer une consolidation de certaines catégories ou une réévaluation des entités nécessitant une régulation spécifique.
-6. **Exclusion de Certaines Activités** :
-   Les personnes se livrant au commerce de métaux précieux ou de pierres précieuses, mentionnées au 11° bis de l'ancienne version, ne sont plus explicitement listées dans la nouvelle version. Cela pourrait signifier un changement dans la manière dont ces activités sont régulées ou une exclusion de ces activités des obligations prévues par les sections 2 à 7 du chapitre.
-En conclusion, les modifications apportées à cet article de loi visent principalement à clarifier, simplifier et actualiser les obligations des entités assujetties. La suppression des références aux prestataires de services sur crypto-actifs et l'ajout des émetteurs de jetons reflètent une adaptation aux évolutions technologiques et économiques. Ces changements auront des conséquences sur la manière dont certaines entités devront se conformer aux obligations légales, nécessitant une réévaluation de leurs pratiques de conformité.</t>
+1. **Suppression de certaines catégories** :
+   - La nouvelle version a supprimé les prestataires de services sur crypto-actifs (ancien 1° quater) et les prestataires de services autorisés à fournir des services sur crypto-actifs conformément à l'article 59 du règlement (UE) 2023/1114 (ancien 7° bis b et 7° quater b). Cette suppression pourrait indiquer une révision de la réglementation applicable à ces entités ou une intégration de ces dispositions dans d'autres textes législatifs.
+2. **Ajout et modification de catégories** :
+   - Les émetteurs de jetons ayant obtenu le visa mentionné à l'article L. 552-4 (nouveau 7° ter) ont été ajoutés. Cela reflète une adaptation aux évolutions technologiques et aux nouvelles formes de financement.
+   - Les conseillers en investissements participatifs ont été explicitement mentionnés (nouveau 6°), ce qui clarifie leur inclusion dans les obligations prévues par les sections 2 à 7 du chapitre.
+3. **Réorganisation et clarification** :
+   - La nouvelle version a réorganisé certaines catégories pour une meilleure lisibilité. Par exemple, les références aux articles du code monétaire et financier ont été mises à jour et clarifiées.
+   - Les références aux articles L. 721-7 et L. 721-18 du code monétaire et financier ont été remplacées par L. 711-2 et L. 712-4 respectivement, ce qui pourrait indiquer une mise à jour des numérotations ou une correction d'erreurs antérieures.
+4. **Suppression de certaines entités** :
+   - Les gestionnaires de crédits (ancien 20°) ont été supprimés de la liste des personnes assujetties. Cela pourrait signifier une révision de leur statut réglementaire ou une exclusion de leurs obligations spécifiques.
+5. **Harmonisation et simplification** :
+   - La nouvelle version a supprimé certaines redondances et simplifié la rédaction. Par exemple, les mentions spécifiques aux succursales des établissements de crédit, de paiement et de monnaie électronique ont été consolidées pour éviter les répétitions.
+**Portée et conséquences** :
+- **Portée** : Les modifications apportées visent principalement à clarifier et à simplifier la liste des entités assujetties aux obligations prévues par les sections 2 à 7 du chapitre. Elles reflètent également une adaptation aux évolutions technologiques et réglementaires, notamment en ce qui concerne les crypto-actifs et les nouvelles formes de financement.
+- **Conséquences** : Les entités nouvellement incluses ou explicitement mentionnées devront se conformer aux obligations prévues, ce qui pourrait entraîner des ajustements opérationnels et de conformité. La suppression de certaines catégories pourrait alléger les obligations pour les entités concernées, mais pourrait également nécessiter une réévaluation de leur statut réglementaire.
+En conclusion, les modifications apportées à cet article de loi montrent une volonté de modernisation et de clarification des obligations réglementaires, tout en s'adaptant aux évolutions du secteur financier et technologique.</t>
         </is>
       </c>
     </row>
@@ -1387,58 +1378,58 @@
         <is>
           <t>L'analyse des modifications apportées à l'article révèle plusieurs changements notables :
 1. **Extension des entités concernées** :
-   - L'ancienne version de l'article mentionnait les personnes énumérées aux 1° à 7° de l'article L. 561-2, ainsi que certaines entités spécifiques comme les compagnies financières holding et les entreprises mères de sociétés de financement. La nouvelle version étend cette liste pour inclure les personnes mentionnées aux 1° à 7° bis et au 7° quater de l'article L. 561-2. Cette extension élargit le champ des entités soumises aux obligations de déclaration et de partage d'informations.
+   - L'ancienne version de l'article mentionnait les personnes énumérées aux 1° à 7° de l'article L. 561-2, ainsi que certaines entités spécifiques comme les compagnies financières holding et les entreprises mères de sociétés de financement. La nouvelle version étend cette liste en incluant les personnes mentionnées aux 1° à 7° bis et au 7° quater de l'article L. 561-2. Cette extension élargit le champ des entités soumises aux obligations de déclaration et de partage d'informations.
 2. **Suppression de références spécifiques** :
-   - La nouvelle version a supprimé les références détaillées aux articles spécifiques du code des assurances, du code de la mutualité et du code de la sécurité sociale qui étaient présentes dans l'ancienne version. Cela simplifie la rédaction de l'article mais pourrait potentiellement réduire la précision des entités concernées.
+   - La nouvelle version de l'article a supprimé les références détaillées aux articles spécifiques du code des assurances, du code de la mutualité et du code de la sécurité sociale. Cela simplifie la rédaction de l'article mais pourrait potentiellement réduire la précision des entités concernées.
 3. **Ajout d'un nouveau paragraphe (III)** :
    - La nouvelle version introduit un paragraphe III qui permet aux entreprises mères de groupes mentionnées au I de l'article L. 561-33 d'accéder aux informations relatives aux déclarations prévues à l'article L. 561-15 réalisées par les entités du groupe. Cette disposition est soumise à des conditions spécifiques, notamment que les entreprises mères soient établies dans un État membre de l'Union européenne, un État partie à l'accord sur l'Espace économique européen, ou un pays tiers imposant des obligations équivalentes en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme. Cette inclusion renforce la coordination et la supervision au sein des groupes internationaux.
-4. **Maintien des conditions de protection des données** :
-   - Les conditions relatives à la protection des données personnelles et des libertés fondamentales, conformément aux articles 122 et 123 de la loi n° 78-17 du 6 janvier 1978, sont maintenues dans les deux versions. Cela assure une continuité dans la protection des droits des personnes concernées.
+4. **Maintien des conditions de partage d'informations** :
+   - Les conditions de partage d'informations (a, b, c, d) restent globalement inchangées dans les deux versions, garantissant que les informations échangées sont nécessaires, utilisées exclusivement à des fins de lutte contre le blanchiment de capitaux et le financement du terrorisme, et que le traitement des informations garantit un niveau de protection suffisant de la vie privée et des libertés et droits fondamentaux des personnes.
 5. **Décret en Conseil d'État** :
-   - Les deux versions prévoient qu'un décret en Conseil d'État précisera les modalités d'application de l'article, ce qui permet de détailler les aspects pratiques et opérationnels de ces dispositions.
-En conclusion, les modifications apportées à l'article visent principalement à élargir le champ des entités concernées par les obligations de déclaration et de partage d'informations, à simplifier la rédaction en supprimant certaines références spécifiques, et à renforcer la coordination au sein des groupes internationaux par l'introduction d'un nouveau paragraphe. Ces changements semblent destinés à améliorer l'efficacité de la lutte contre le blanchiment de capitaux et le financement du terrorisme tout en maintenant un niveau élevé de protection des données personnelles.</t>
+   - Les deux versions prévoient qu'un décret en Conseil d'État précise les modalités d'application de l'article, assurant ainsi une mise en œuvre réglementaire détaillée et conforme.
+En conclusion, les modifications apportées visent principalement à élargir le champ des entités concernées, à simplifier la rédaction de l'article, et à renforcer la coordination au sein des groupes internationaux en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme. Ces changements reflètent une volonté d'améliorer l'efficacité et la cohérence des obligations de déclaration et de partage d'informations au sein des groupes financiers.</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
-        <is>
-          <t>La comparaison entre l'ancienne et la nouvelle version de l'article de loi révèle plusieurs modifications notables, tant sur le fond que sur la forme.
-1. **Extension des entités concernées** :
-   - **Ancienne version** : Les entités mentionnées étaient les personnes aux 1° à 7° de l'article L. 561-2, ainsi que diverses compagnies financières holding, entreprises mères de sociétés de financement, etc.
-   - **Nouvelle version** : Les entités concernées incluent désormais les personnes mentionnées aux 1° à 7° bis et au 7° quater de l'article L. 561-2. Cette extension élargit le champ des entités soumises à l'obligation de déclaration, ce qui pourrait renforcer la lutte contre le blanchiment de capitaux et le financement du terrorisme en incluant davantage d'acteurs.
-2. **Suppression de certaines références spécifiques** :
-   - **Ancienne version** : Faisait référence à des articles spécifiques du code des assurances, du code de la mutualité et du code de la sécurité sociale.
-   - **Nouvelle version** : Ces références spécifiques ont été supprimées, simplifiant ainsi le texte et potentiellement élargissant l'application de la loi à un plus grand nombre d'entités sans se limiter à des catégories précises.
-3. **Ajout d'un nouveau paragraphe (III)** :
-   - **Nouvelle version** : Introduit un nouveau paragraphe III, qui permet aux entreprises mères de groupes mentionnées au I de l'article L. 561-33 d'accéder aux informations relatives aux déclarations prévues à l'article L. 561-15. Cette disposition est conditionnée par le fait que les entreprises mères soient établies dans un État membre de l'Union européenne, un État partie à l'accord sur l'Espace économique européen ou un pays tiers imposant des obligations équivalentes en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme. Cette inclusion vise à renforcer la coordination et la supervision au sein des groupes internationaux, améliorant ainsi l'efficacité des mesures de lutte contre le blanchiment et le financement du terrorisme.
-4. **Maintien des conditions de divulgation** :
-   - Les conditions de divulgation des informations (a, b, c, d) restent globalement inchangées dans les deux versions, garantissant que les informations échangées sont nécessaires, utilisées exclusivement à des fins de vigilance, et que leur traitement assure un niveau de protection suffisant de la vie privée et des libertés fondamentales.
-5. **Décret en Conseil d'État** :
-   - **Ancienne version** : Mentionnait un décret en Conseil d'État pour préciser les modalités d'application.
-   - **Nouvelle version** : Maintient cette disposition, assurant ainsi que les modalités pratiques seront définies de manière détaillée par voie réglementaire.
-**Portée et conséquences** :
-- **Élargissement du champ d'application** : L'inclusion de nouvelles catégories d'entités et la suppression de références spécifiques permettent une application plus large et potentiellement plus efficace de la loi.
-- **Renforcement de la supervision** : L'ajout du paragraphe III permet une meilleure supervision au sein des groupes internationaux, ce qui pourrait améliorer la détection et la prévention des activités illicites.
-- **Simplification et clarification** : La suppression de certaines références spécifiques et la réorganisation du texte contribuent à une meilleure lisibilité et compréhension de la loi.
-En conclusion, les modifications apportées visent à renforcer le cadre juridique de la lutte contre le blanchiment de capitaux et le financement du terrorisme, en élargissant le champ des entités concernées et en améliorant la coordination et la supervision au sein des groupes internationaux. Ces changements devraient contribuer à une application plus efficace et cohérente des obligations de vigilance.</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
         <is>
           <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables.
 1. **Extension des entités concernées** :
-   - **Ancienne version** : Les entités mentionnées aux 1° à 7° de l'article L. 561-2, ainsi que diverses structures financières et leurs filiales et succursales, étaient concernées.
-   - **Nouvelle version** : Les entités concernées incluent désormais les personnes mentionnées aux 1° à 7° bis et au 7° quater de l'article L. 561-2, ainsi que leurs filiales et succursales. Cette extension élargit le champ d'application de la dérogation, incluant potentiellement de nouvelles catégories d'entités financières.
-2. **Ajout d'un nouveau paragraphe (III)** :
-   - **Nouvelle version** : Un nouveau paragraphe III a été ajouté, permettant aux entreprises mères de groupes mentionnées au I de l'article L. 561-33 d'accéder aux informations relatives aux déclarations prévues à l'article L. 561-15 réalisées par les entités du groupe. Les conditions pour cet accès incluent l'établissement des entreprises mères dans un État membre de l'Union européenne, un État partie à l'accord sur l'Espace économique européen, ou un pays tiers imposant des obligations équivalentes en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme. Cette disposition vise à renforcer la coordination et la supervision au sein des groupes financiers internationaux.
-3. **Conditions de divulgation des informations** :
-   - Les conditions de divulgation des informations restent globalement similaires entre les deux versions, avec des exigences strictes sur la nécessité des informations pour la vigilance en matière de lutte contre le blanchiment des capitaux et le financement du terrorisme, et sur la protection de la vie privée et des libertés fondamentales.
-4. **Harmonisation et clarification** :
-   - La nouvelle version semble harmoniser et clarifier les dispositions relatives à la divulgation des informations au sein des groupes financiers et des structures d'exercice professionnel, en précisant les entités concernées et les conditions de traitement des informations.
+   - **Ancienne version** : Les entités mentionnées aux 1° à 7° de l'article L. 561-2 étaient concernées.
+   - **Nouvelle version** : Les entités mentionnées aux 1° à 7° bis et au 7° quater de l'article L. 561-2 sont désormais incluses. Cela élargit le champ des entités soumises à l'obligation de déclaration, augmentant ainsi la portée de la réglementation.
+2. **Suppression de références spécifiques** :
+   - **Ancienne version** : Faisait référence à des entités spécifiques telles que les compagnies financières holding, les entreprises mères de sociétés de financement, etc.
+   - **Nouvelle version** : Ces références spécifiques ont été supprimées, simplifiant ainsi la rédaction et potentiellement élargissant l'application à un plus grand nombre d'entités.
+3. **Ajout d'un nouveau paragraphe (III)** :
+   - **Nouvelle version** : Introduit un nouveau paragraphe III qui permet aux entreprises mères de groupes mentionnées au I de l'article L. 561-33 d'accéder aux informations relatives aux déclarations prévues à l'article L. 561-15. Cela renforce la transparence et la supervision au sein des groupes, en particulier pour les entreprises mères établies dans des juridictions imposant des obligations équivalentes en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme.
+4. **Maintien des conditions de divulgation** :
+   - Les conditions de divulgation des informations (a, b, c, d) restent globalement inchangées entre les deux versions, garantissant que les informations échangées sont nécessaires, utilisées exclusivement à des fins de lutte contre le blanchiment et le financement du terrorisme, et protégées conformément aux normes de protection des données.
+5. **Clarification et simplification** :
+   - La nouvelle version semble viser une simplification et une clarification du texte, en supprimant certaines références spécifiques et en ajoutant des dispositions pour les entreprises mères, ce qui pourrait faciliter la compréhension et l'application de la loi.
+**Conséquences potentielles** :
+- **Élargissement de la portée** : L'inclusion de nouvelles entités et la suppression de références spécifiques peuvent entraîner une application plus large de la loi.
+- **Renforcement de la supervision** : L'ajout du paragraphe III permet une meilleure supervision par les entreprises mères, ce qui pourrait améliorer la conformité au sein des groupes.
+- **Simplification administrative** : La simplification du texte peut réduire les ambiguïtés et faciliter la mise en œuvre par les entités concernées.
+En conclusion, les modifications apportées visent à élargir la portée de la réglementation, renforcer la supervision interne des groupes et simplifier la compréhension et l'application des obligations légales.</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables.
+1. **Extension des entités concernées** :
+   - **Ancienne version** : Les entités mentionnées incluaient les personnes des 1° à 7° de l'article L. 561-2, ainsi que diverses compagnies financières holding, entreprises mères de sociétés de financement, etc.
+   - **Nouvelle version** : Les entités concernées sont étendues pour inclure les personnes des 1° à 7° bis et au 7° quater de l'article L. 561-2. Cette extension élargit le champ des entités soumises aux obligations de déclaration et de partage d'informations.
+2. **Suppression de références spécifiques** :
+   - **Ancienne version** : Faisait référence à des articles spécifiques du code des assurances, du code de la mutualité et du code de la sécurité sociale.
+   - **Nouvelle version** : Ces références spécifiques ont été supprimées, simplifiant ainsi le texte et potentiellement élargissant l'application à un plus grand nombre d'entités sans les restrictions des articles spécifiques.
+3. **Ajout d'un nouveau paragraphe (III)** :
+   - **Nouvelle version** : Introduit un nouveau paragraphe III qui permet aux entreprises mères de groupes mentionnées au I de l'article L. 561-33 d'accéder aux informations relatives aux déclarations prévues à l'article L. 561-15. Cette disposition est conditionnée par l'établissement de ces entreprises mères dans un État membre de l'Union européenne, un État partie à l'accord sur l'Espace économique européen, ou un pays tiers imposant des obligations équivalentes en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme. Cela renforce la transparence et la coordination au sein des groupes internationaux.
+4. **Conditions de traitement des informations** :
+   - Les conditions de traitement des informations (a, b, c, d) restent globalement inchangées entre les deux versions, garantissant que les informations échangées sont nécessaires, utilisées exclusivement à des fins de lutte contre le blanchiment et le financement du terrorisme, et que leur traitement garantit un niveau de protection suffisant de la vie privée et des libertés fondamentales.
 **Portée et conséquences** :
-- **Élargissement du champ d'application** : L'inclusion des nouvelles catégories d'entités (1° à 7° bis et 7° quater) et l'ajout des entreprises mères de groupes renforcent le cadre de lutte contre le blanchiment de capitaux et le financement du terrorisme, en permettant une meilleure circulation de l'information au sein des groupes financiers.
-- **Renforcement de la supervision** : Le nouveau paragraphe III permet une supervision plus efficace par les entreprises mères, ce qui pourrait améliorer la conformité et la coordination des mesures de lutte contre le blanchiment de capitaux et le financement du terrorisme au sein des groupes internationaux.
-- **Protection des données** : Les exigences de protection des données personnelles et des libertés fondamentales restent inchangées, garantissant un niveau de protection suffisant conformément aux articles 122 et 123 de la loi n° 78-17 du 6 janvier 1978.
-En conclusion, les modifications apportées visent à renforcer le cadre réglementaire en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme, en élargissant le champ d'application et en améliorant la coordination et la supervision au sein des groupes financiers.</t>
+- **Élargissement du champ d'application** : L'inclusion des nouvelles catégories d'entités et la suppression des références spécifiques permettent une application plus large et potentiellement plus uniforme des obligations de déclaration.
+- **Renforcement de la transparence intra-groupe** : Le nouveau paragraphe III améliore la transparence et la coordination au sein des groupes internationaux, facilitant ainsi la mise en œuvre des obligations de lutte contre le blanchiment et le financement du terrorisme.
+- **Simplification et clarification** : La suppression des références spécifiques et l'ajout de nouvelles catégories d'entités simplifient le texte et clarifient les obligations des entités concernées.
+En conclusion, la version révisée de l'article de loi apporte des modifications significatives visant à élargir le champ d'application, renforcer la transparence et la coordination au sein des groupes internationaux, tout en maintenant des garanties strictes pour la protection des données personnelles.</t>
         </is>
       </c>
     </row>
@@ -1542,27 +1533,26 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>L'analyse des modifications apportées à cet article révèle une suppression notable. La nouvelle version de l'article a éliminé la référence spécifique aux "prestataires de services sur crypto-actifs au sens règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs". 
-Cette suppression a plusieurs implications juridiques :
-1. **Champ d'application restreint** : La nouvelle version de l'article ne mentionne plus explicitement les prestataires de services sur crypto-actifs. Cela pourrait signifier que ces prestataires ne sont plus soumis aux mêmes obligations de réponse aux demandes d'informations de l'Autorité des marchés financiers (AMF) et aux sanctions prévues en cas de non-respect.
-2. **Clarification ou omission** : La suppression pourrait être interprétée comme une volonté de clarifier le texte en se concentrant uniquement sur les prestataires de services mentionnés aux 1° à 4° de l'article L. 54-10-2. Alternativement, cela pourrait être une omission qui pourrait nécessiter une révision future pour réintégrer les prestataires de services sur crypto-actifs dans le champ d'application de l'article.
-3. **Impact sur la régulation des crypto-actifs** : En retirant cette référence, le législateur pourrait avoir l'intention de traiter la régulation des prestataires de services sur crypto-actifs dans un cadre législatif distinct, potentiellement plus adapté aux spécificités de ce secteur.
-En conclusion, la modification de l'article réduit son champ d'application en excluant explicitement les prestataires de services sur crypto-actifs, ce qui pourrait avoir des conséquences sur la régulation et le contrôle de ces acteurs par l'AMF.</t>
+          <t>L'analyse des modifications apportées à cet article révèle une suppression notable. La nouvelle version de l'article a éliminé la référence spécifique aux prestataires de services sur crypto-actifs au sens du règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs.
+Cette suppression pourrait indiquer une volonté de simplifier le texte législatif en retirant une mention spécifique qui pourrait être redondante ou déjà couverte par d'autres dispositions légales. En effet, les prestataires de services sur crypto-actifs pourraient toujours être inclus dans les catégories générales des prestataires de services mentionnés aux 1° à 4° de l'article L. 54-10-2, rendant ainsi la mention spécifique superflue.
+En termes de conséquences juridiques, cette modification n'affecte pas les obligations des prestataires de services sur crypto-actifs, qui restent soumis aux mêmes exigences de coopération avec l'Autorité des marchés financiers. Toutefois, la suppression de cette référence spécifique pourrait avoir un impact sur la clarté et la précision de la législation pour les acteurs concernés, nécessitant une interprétation plus large des catégories de prestataires de services mentionnées.
+En conclusion, la modification vise probablement à simplifier et à harmoniser le texte législatif sans changer substantiellement les obligations des prestataires de services sur crypto-actifs.</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
           <t>L'analyse des versions antérieure et révisée de l'article de loi révèle une modification notable. La version antérieure incluait explicitement les prestataires de services sur crypto-actifs au sens du règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs. Cette mention spécifique a été supprimée dans la version révisée.
-La portée de cette modification est significative. En supprimant la référence explicite aux prestataires de services sur crypto-actifs, la nouvelle version de l'article semble restreindre le champ d'application de la sanction aux seuls prestataires des services mentionnés aux 1° à 4° de l'article L. 54-10-2. Cela pourrait potentiellement exclure certains acteurs du marché des crypto-actifs qui ne sont pas couverts par ces dispositions spécifiques, réduisant ainsi l'étendue des obligations de coopération avec l'Autorité des marchés financiers pour ces prestataires.
-Les conséquences de cette révision pourraient inclure une moindre capacité de l'Autorité des marchés financiers à obtenir des informations ou à exercer son contrôle sur certains prestataires de services sur crypto-actifs, ce qui pourrait affecter la surveillance et la régulation de ce secteur en pleine expansion. Il est crucial de surveiller comment cette modification sera interprétée et appliquée dans la pratique pour évaluer pleinement son impact sur la régulation des marchés financiers et des crypto-actifs.</t>
+La portée de cette modification est significative. En supprimant la référence explicite aux prestataires de services sur crypto-actifs, la nouvelle version de l'article semble restreindre le champ d'application de la sanction aux seuls prestataires des services mentionnés aux 1° à 4° de l'article L. 54-10-2. Cela pourrait potentiellement exclure certains acteurs du marché des crypto-actifs qui ne sont pas couverts par ces dispositions spécifiques.
+Les conséquences de cette modification pourraient être multiples. D'une part, cela pourrait réduire la capacité de l'Autorité des marchés financiers (AMF) à sanctionner certains prestataires de services sur crypto-actifs qui ne répondent pas à ses demandes d'informations ou qui entravent ses missions de contrôle. D'autre part, cela pourrait créer une incertitude juridique pour les acteurs du marché des crypto-actifs quant à leur obligation de se conformer aux demandes de l'AMF.
+En conclusion, la suppression de la référence explicite aux prestataires de services sur crypto-actifs dans la version révisée de l'article pourrait limiter l'étendue des sanctions applicables et engendrer des ambiguïtés quant à la régulation de ces acteurs par l'AMF.</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle une modification notable. La version antérieure incluait explicitement les prestataires de services sur crypto-actifs au sens du règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs. Cette mention a été supprimée dans la version révisée.
-La portée de cette modification est significative. En omettant la référence explicite aux prestataires de services sur crypto-actifs, la nouvelle version de l'article semble restreindre le champ d'application de la sanction prévue à l'article L. 571-4. Désormais, seules les personnes exerçant les professions de prestataires de services mentionnés aux 1° à 4° de l'article L. 54-10-2 sont visées.
-Cette révision pourrait avoir pour conséquence de limiter la responsabilité pénale des prestataires de services sur crypto-actifs en cas de non-réponse aux demandes d'informations de l'Autorité des marchés financiers, d'obstruction à l'exercice de sa mission de contrôle ou de communication de renseignements inexacts. En effet, sans la mention explicite, ces prestataires pourraient ne plus être soumis aux mêmes obligations et sanctions que les autres prestataires de services financiers.
-En conclusion, la suppression de la référence aux prestataires de services sur crypto-actifs dans la nouvelle version de l'article pourrait réduire la portée de la réglementation et les obligations de ces prestataires vis-à-vis de l'Autorité des marchés financiers. Cette modification pourrait nécessiter une clarification ou une révision future pour s'assurer que tous les acteurs pertinents des marchés financiers, y compris ceux opérant sur les crypto-actifs, sont adéquatement régulés et sanctionnés en cas de manquement.</t>
+          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle une modification spécifique et ciblée. La version révisée a supprimé la référence explicite aux "prestataires de services sur crypto-actifs au sens règlement (UE) 2023/1114 du Parlement européen et du Conseil du 31 mai 2023 sur les marchés de crypto-actifs". 
+Cette suppression a pour effet de restreindre le champ d'application de l'article. Désormais, seules les personnes exerçant la profession de prestataire des services mentionnés aux 1° à 4° de l'article L. 54-10-2 sont visées par les sanctions prévues à l'article L. 571-4 en cas de non-réponse aux demandes d'informations de l'Autorité des marchés financiers, d'obstruction à sa mission de contrôle ou de communication de renseignements inexacts.
+La portée de cette modification est significative. En excluant les prestataires de services sur crypto-actifs, le législateur semble vouloir recentrer les obligations de coopération et de transparence sur un périmètre plus restreint de prestataires de services financiers traditionnels. Cela pourrait avoir pour conséquence de réduire la pression réglementaire sur les acteurs du marché des crypto-actifs, tout en maintenant des exigences strictes pour les autres prestataires de services financiers.
+En conclusion, cette révision législative simplifie et clarifie le champ d'application de l'article, en excluant explicitement les prestataires de services sur crypto-actifs, ce qui pourrait avoir des implications importantes pour la régulation et la supervision de ces acteurs par l'Autorité des marchés financiers.</t>
         </is>
       </c>
     </row>
@@ -1667,59 +1657,55 @@
       <c r="V9" t="inlineStr">
         <is>
           <t>L'analyse des modifications apportées à l'article révèle plusieurs changements significatifs :
-1. **Références législatives mises à jour** :
+1. **Références législatives et réglementaires** :
    - Les articles L. 54-10-3 à L. 54-10-5, initialement régis par la loi n° 2019-486 du 22 mai 2019, sont désormais régis par l'ordonnance n° 2020-1544 du 9 décembre 2020. Cette ordonnance renforce le cadre de la lutte contre le blanchiment de capitaux et le financement du terrorisme applicable aux actifs numériques.
-   - L'article L. 572-24 est également soumis à cette ordonnance, tandis que les articles L. 572-23, L. 572-25 et L. 572-26 restent sous la loi n° 2019-486.
+   - L'article L. 572-24, initialement sous la loi n° 2019-486, est également régi par l'ordonnance n° 2020-1544.
 2. **Adaptations spécifiques pour la Nouvelle-Calédonie** :
-   - Pour l'application de l'article L. 54-10-3, certaines phrases et alinéas sont supprimés, notamment les références à d'autres États membres de l'Union européenne ou parties à l'accord sur l'Espace économique européen.
-   - Les références aux règlements européens sont adaptées pour se conformer aux règlements mentionnés à l'article L. 713-16.
-   - Les références au code de commerce sont remplacées par les dispositions équivalentes applicables localement.
-3. **Conversion des montants en euros en francs CFP** :
-   - Les montants en euros mentionnés dans l'article L. 572-23 sont convertis en francs CFP (1 790 000 francs CFP pour 15 000 euros et 3 580 000 francs CFP pour 30 000 euros).
-   - De même, le montant de 7 500 euros dans l'article L. 572-26 est converti en 895 000 francs CFP.
-Ces modifications montrent une adaptation des dispositions législatives pour mieux correspondre au contexte juridique et économique de la Nouvelle-Calédonie, en particulier en ce qui concerne la lutte contre le blanchiment de capitaux et le financement du terrorisme, ainsi que l'ajustement des montants financiers aux réalités locales.</t>
+   - Pour l'application de l'article L. 54-10-3, certaines mentions spécifiques à l'Union européenne sont supprimées, ce qui indique une adaptation locale des dispositions européennes.
+   - Les références aux règlements européens dans les articles L. 54-10-3 et L. 54-10-5 sont remplacées par des références locales, spécifiquement à l'article L. 713-16.
+   - Les références au code de commerce sont remplacées par des dispositions équivalentes applicables localement, ce qui montre une volonté d'adapter les textes aux réalités juridiques locales.
+3. **Conversion des montants financiers** :
+   - Les montants en euros mentionnés dans les articles L. 572-23 et L. 572-26 sont convertis en francs CFP, la monnaie utilisée en Nouvelle-Calédonie. Par exemple, 15 000 euros deviennent 1 790 000 francs CFP, et 30 000 euros deviennent 3 580 000 francs CFP. Cette conversion assure la pertinence et l'applicabilité des sanctions financières dans le contexte local.
+4. **Suppression et remplacement de termes** :
+   - Les mots “la Banque de France” sont remplacés par “l'Institut d'émission d'outre-mer” pour l'application du dernier alinéa de l'article L. 54-10-5, ce qui est maintenu dans la nouvelle version.
+En résumé, les modifications apportées visent principalement à adapter les dispositions législatives et réglementaires aux spécificités locales de la Nouvelle-Calédonie, en tenant compte des nouvelles régulations introduites par l'ordonnance de 2020 et en assurant la conversion des montants financiers dans la monnaie locale. Ces ajustements permettent une application plus cohérente et efficace des textes de loi dans ce territoire d'outre-mer.</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>L'analyse des modifications apportées à l'article de loi révèle plusieurs changements significatifs entre l'ancienne et la nouvelle version.
-1. **Révision des articles applicables et de leurs sources législatives** :
+          <t>L'analyse des évolutions réglementaires entre l'ancienne et la nouvelle version de l'article de loi révèle plusieurs modifications significatives :
+1. **Modification des références législatives** :
+   - Les articles L. 54-10-3 à L. 54-10-5, initialement issus de la loi n° 2019-486 du 22 mai 2019, sont désormais issus de l'ordonnance n° 2020-1544 du 9 décembre 2020. Cette ordonnance renforce le cadre de la lutte contre le blanchiment de capitaux et le financement du terrorisme applicable aux actifs numériques.
+   - De même, l'article L. 572-24 est maintenant issu de cette ordonnance, alors qu'il était précédemment couvert par la loi n° 2019-486.
+2. **Adaptations spécifiques pour la Nouvelle-Calédonie** :
+   - Pour l'application de l'article L. 54-10-3, certaines mentions relatives à l'Union européenne et à l'Espace économique européen sont supprimées, ce qui pourrait indiquer une adaptation aux spécificités locales de la Nouvelle-Calédonie.
+   - Les références aux règlements européens sont remplacées par des références spécifiques à l'article L. 713-16, ce qui pourrait viser à harmoniser les dispositions locales avec les règlements européens pertinents.
+   - Les références au code de commerce sont remplacées par les dispositions équivalentes applicables localement, assurant ainsi une cohérence avec le cadre juridique de la Nouvelle-Calédonie.
+3. **Conversion des montants financiers** :
+   - Les montants en euros mentionnés dans l'article L. 572-23 sont convertis en francs CFP, ce qui est essentiel pour la clarté et l'application locale des sanctions financières.
+   - De même, les montants en euros dans l'article L. 572-26 sont également convertis en francs CFP.
+Ces modifications montrent une volonté d'adapter les dispositions législatives aux spécificités économiques et juridiques de la Nouvelle-Calédonie, tout en renforçant le cadre de lutte contre le blanchiment de capitaux et le financement du terrorisme. Les conversions monétaires et les adaptations spécifiques aux règlements européens et au code de commerce local sont des ajustements nécessaires pour assurer une application efficace et cohérente de la loi dans ce territoire.</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications significatives.
+1. **Changements dans les articles applicables et leurs sources législatives** :
    - **Ancienne version** : Les articles L. 54-10-1 à L. 54-10-5 et L. 572-23 à L. 572-26 étaient applicables en Nouvelle-Calédonie, tous issus de la loi n° 2019-486 du 22 mai 2019 relative à la croissance et la transformation des entreprises.
    - **Nouvelle version** : Les articles L. 54-10-1 et L. 54-10-2 restent issus de la loi n° 2019-486. Cependant, les articles L. 54-10-3 à L. 54-10-5 sont désormais issus de l'ordonnance n° 2020-1544 du 9 décembre 2020, qui renforce le cadre de la lutte contre le blanchiment de capitaux et le financement du terrorisme applicable aux actifs numériques. De plus, l'article L. 572-24 est également issu de cette ordonnance, tandis que les articles L. 572-23, L. 572-25 et L. 572-26 restent issus de la loi n° 2019-486.
-2. **Adaptations spécifiques pour la Nouvelle-Calédonie** :
-   - **Ancienne version** : Seule une adaptation était mentionnée, remplaçant "la Banque de France" par "l'Institut d'émission d'outre-mer" pour l'application du dernier alinéa de l'article L. 54-10-5.
-   - **Nouvelle version** : Plusieurs adaptations sont introduites :
+2. **Modifications spécifiques pour l'application locale** :
+   - **Ancienne version** : Seule une modification était prévue, remplaçant les mots "la Banque de France" par "l'Institut d'émission d'outre-mer" pour l'application du dernier alinéa de l'article L. 54-10-5.
+   - **Nouvelle version** : Plusieurs modifications spécifiques sont introduites :
      1. Suppression de certaines mentions dans l'article L. 54-10-3 concernant l'Union européenne.
      2. Remplacement des références aux règlements européens par des références locales pour les articles L. 54-10-3 et L. 54-10-5.
-     3. Substitution des références au code de commerce par des dispositions locales équivalentes pour les articles L. 54-10-3 et L. 54-10-5.
-     4. Conversion des montants en euros en francs CFP pour l'article L. 572-23.
-     5. Conversion des montants en euros en francs CFP pour l'article L. 572-26.
-**Portée et conséquences des changements** :
-- **Harmonisation et actualisation** : La nouvelle version intègre des dispositions plus récentes et spécifiques à la lutte contre le blanchiment de capitaux et le financement du terrorisme, reflétant une mise à jour législative importante.
-- **Adaptation locale** : Les nombreuses adaptations spécifiques à la Nouvelle-Calédonie montrent une volonté d'assurer que les dispositions législatives soient pertinentes et applicables dans le contexte local, notamment en matière de montants financiers et de références légales.
-- **Clarté et précision** : Les modifications apportées visent à clarifier et à préciser les dispositions applicables, en supprimant des références non pertinentes et en adaptant les termes et montants aux réalités locales.
-En conclusion, la révision de cet article de loi montre une mise à jour significative et une adaptation accrue aux spécificités de la Nouvelle-Calédonie, renforçant ainsi la pertinence et l'efficacité des dispositions législatives dans ce territoire.</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications significatives.
-1. **Changements dans les articles applicables et leurs sources** :
-   - **Ancienne version** : Les articles L. 54-10-1 à L. 54-10-5 et L. 572-23 à L. 572-26 étaient applicables en Nouvelle-Calédonie, tous issus de la loi n° 2019-486 du 22 mai 2019.
-   - **Nouvelle version** : Les articles L. 54-10-1 et L. 54-10-2 restent issus de la loi n° 2019-486, mais les articles L. 54-10-3 à L. 54-10-5 sont désormais issus de l'ordonnance n° 2020-1544 du 9 décembre 2020, qui renforce le cadre de la lutte contre le blanchiment de capitaux et le financement du terrorisme applicable aux actifs numériques. De plus, l'article L. 572-24 est également issu de cette ordonnance, tandis que les articles L. 572-23, L. 572-25 et L. 572-26 restent issus de la loi n° 2019-486.
-2. **Modifications spécifiques pour l'application locale** :
-   - **Ancienne version** : Seule une modification était mentionnée, remplaçant "la Banque de France" par "l'Institut d'émission d'outre-mer" pour l'application du dernier alinéa de l'article L. 54-10-5.
-   - **Nouvelle version** : Plusieurs modifications spécifiques sont introduites :
-     1. Suppression de certaines mentions dans l'article L. 54-10-3.
-     2. Remplacement de références aux règlements européens par des références locales dans les articles L. 54-10-3 et L. 54-10-5.
      3. Adaptation des références au code de commerce par des dispositions locales équivalentes pour les articles L. 54-10-3 et L. 54-10-5.
      4. Conversion des montants en euros en francs CFP pour l'article L. 572-23.
      5. Conversion des montants en euros en francs CFP pour l'article L. 572-26.
 **Portée et conséquences** :
-- **Harmonisation et actualisation** : La nouvelle version intègre des dispositions plus récentes et spécifiques à la lutte contre le blanchiment de capitaux et le financement du terrorisme, reflétant une mise à jour législative importante.
-- **Adaptation locale** : Les modifications spécifiques pour l'application en Nouvelle-Calédonie montrent une volonté d'adapter les textes législatifs aux réalités locales, notamment en termes de monnaie et de références légales.
-- **Complexité accrue** : L'introduction de plusieurs modifications spécifiques pourrait complexifier l'application des textes pour les praticiens locaux, nécessitant une attention particulière à ces adaptations.
-En conclusion, la révision de l'article de loi montre une mise à jour significative et une adaptation locale accrue, visant à renforcer le cadre juridique en Nouvelle-Calédonie tout en tenant compte des spécificités régionales.</t>
+- **Adaptation législative** : La nouvelle version montre une adaptation plus fine et détaillée des dispositions législatives pour leur application en Nouvelle-Calédonie, en tenant compte des spécificités locales et des nouvelles réglementations européennes.
+- **Renforcement de la lutte contre le blanchiment** : L'intégration de l'ordonnance n° 2020-1544 dans les articles L. 54-10-3 à L. 54-10-5 et L. 572-24 indique un renforcement des mesures contre le blanchiment de capitaux et le financement du terrorisme, ce qui pourrait avoir des implications importantes pour les acteurs économiques locaux.
+- **Clarté et précision** : Les conversions monétaires et les adaptations des références législatives locales visent à clarifier et à rendre plus précises les dispositions applicables, facilitant ainsi leur mise en œuvre et leur compréhension par les parties concernées.
+En conclusion, la révision de cet article de loi introduit des ajustements significatifs pour aligner les dispositions législatives avec les réalités locales de la Nouvelle-Calédonie, tout en intégrant des mesures renforcées de lutte contre le blanchiment de capitaux et le financement du terrorisme.</t>
         </is>
       </c>
     </row>
@@ -1823,52 +1809,56 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>L'analyse des modifications entre l'ancienne et la nouvelle version de l'article révèle plusieurs ajustements notables :
-1. **Suppression de Références Spécifiques** : La nouvelle version a supprimé certaines références spécifiques à des ordonnances et lois antérieures, notamment celles concernant les articles L. 561-27, L. 561-29-1, et L. 561-31-2. Cela pourrait indiquer une simplification ou une mise à jour des références législatives pour refléter les modifications récentes du cadre juridique.
-2. **Harmonisation des Textes** : Les articles L. 561-2, L. 561-7, L. 561-14, et L. 561-20 sont désormais applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544, ce qui montre une harmonisation des textes pour renforcer le cadre de lutte contre le blanchiment de capitaux et le financement du terrorisme, notamment en ce qui concerne les actifs numériques.
-3. **Suppression de Dispositions** : La suppression du point 7° du III, qui concernait des dispositions spécifiques à l'article L. 561-31-2, pourrait indiquer une révision ou une suppression de certaines obligations ou adaptations spécifiques à la Nouvelle-Calédonie.
-4. **Clarification des Références** : Les références aux règlements européens portant mesures restrictives ont été remplacées par des références plus générales aux règlements européens mentionnés à l'article L. 713-16. Cela pourrait viser à clarifier et simplifier les renvois législatifs pour une meilleure compréhension et application locale.
-5. **Maintien des Adaptations Locales** : Les adaptations spécifiques à la Nouvelle-Calédonie, telles que la conversion des valeurs monétaires en francs CFP et les références aux autorités locales compétentes, ont été maintenues, assurant ainsi que les dispositions législatives restent pertinentes et applicables dans le contexte local.
-6. **Mise à Jour des Références Juridiques** : La nouvelle version met à jour les références aux articles et aux ordonnances pour refléter les modifications législatives récentes, assurant ainsi que le texte est à jour avec les dernières évolutions du cadre juridique.
-En résumé, les modifications apportées visent principalement à harmoniser les textes législatifs, à supprimer des références obsolètes ou spécifiques, et à maintenir les adaptations nécessaires pour l'application locale en Nouvelle-Calédonie. Ces changements reflètent une volonté de simplification et de mise à jour du cadre juridique pour une meilleure efficacité et clarté.</t>
+          <t>L'analyse des modifications entre l'ancienne et la nouvelle version de l'article révèle plusieurs changements notables :
+1. **Références législatives et ordonnances** :
+   - La nouvelle version a supprimé les références spécifiques à certaines lois et ordonnances, notamment celles de la loi n° 2021-1308 du 8 octobre 2021 et de l'ordonnance n° 2021-958 du 19 juillet 2021. Cela simplifie la lecture et l'application de l'article en se concentrant sur les ordonnances et lois les plus pertinentes.
+2. **Applicabilité des articles** :
+   - Les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont désormais applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020, ce qui unifie et clarifie les références législatives.
+3. **Suppression de dispositions spécifiques** :
+   - La nouvelle version a supprimé le point 7° du III, ce qui pourrait indiquer une simplification ou une suppression de dispositions jugées non nécessaires ou redondantes.
+4. **Adaptations locales** :
+   - Les adaptations locales restent largement inchangées, mais la nouvelle version a supprimé certaines références spécifiques aux règlements européens, ce qui pourrait indiquer une volonté de simplifier l'application locale en Nouvelle-Calédonie.
+5. **Clarifications et simplifications** :
+   - La nouvelle version a supprimé plusieurs phrases et références spécifiques, ce qui semble viser à simplifier et clarifier le texte pour une meilleure compréhension et application.
+En résumé, les modifications apportées visent principalement à simplifier et clarifier l'article, en supprimant des références spécifiques et en unifiant les textes applicables. Cela devrait faciliter l'application des dispositions en Nouvelle-Calédonie, tout en maintenant les adaptations nécessaires pour tenir compte des spécificités locales.</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, principalement dans la section I. Voici les principaux changements et leurs implications :
-1. **Références aux textes législatifs et réglementaires** :
-   - La nouvelle version simplifie les références aux articles applicables en Nouvelle-Calédonie. Par exemple, les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont désormais tous applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020, ce qui clarifie et uniformise les références législatives.
-2. **Suppression de certaines références** :
-   - La nouvelle version a supprimé la mention des articles L. 561-29-1 et L. 561-31-2, qui étaient présents dans l'ancienne version. Cela pourrait indiquer une révision ou une abrogation de ces articles spécifiques dans le contexte de la Nouvelle-Calédonie.
-3. **Adaptations locales** :
-   - Les adaptations locales restent largement inchangées, mais la suppression du point 7° dans la section III de la nouvelle version indique une simplification ou une suppression de certaines adaptations spécifiques. Cela pourrait réduire la complexité de l'application locale de la loi.
-4. **Clarification des termes et des références** :
-   - La nouvelle version continue de remplacer les références aux entités et aux valeurs monétaires par leurs équivalents locaux, ce qui est essentiel pour l'application pratique de la loi en Nouvelle-Calédonie. Par exemple, les valeurs en euros sont converties en francs CFP, et les références aux autorités locales sont maintenues.
-5. **Suppression de certaines mentions européennes** :
-   - Plusieurs mentions relatives à l'Union européenne et à l'Espace économique européen ont été supprimées, ce qui pourrait indiquer une volonté de rendre la législation plus autonome et adaptée au contexte local de la Nouvelle-Calédonie.
-En conclusion, la révision de cet article de loi vise principalement à simplifier et à clarifier les références législatives et réglementaires applicables en Nouvelle-Calédonie, tout en maintenant les adaptations locales nécessaires. Les suppressions de certaines références et mentions européennes semblent orientées vers une meilleure adéquation avec le contexte juridique et administratif local. Ces modifications devraient faciliter l'application et l'interprétation de la loi par les autorités locales et les parties concernées.</t>
+          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, principalement dans les références législatives et les adaptations spécifiques à la Nouvelle-Calédonie. Voici les principaux changements et leurs implications :
+1. **Références législatives mises à jour** :
+   - La nouvelle version intègre les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020, ce qui renforce le cadre de la lutte contre le blanchiment de capitaux et le financement du terrorisme applicables aux actifs numériques. Cela remplace les références antérieures à la loi n° 2021-1308 du 8 octobre 2021 pour certains articles.
+   - Les articles L. 561-36, L. 561-36-2, L. 561-36-3, L. 561-37, L. 561-38, L. 562-3 à L. 562-9, L. 562-11, L. 562-12 et L. 574-3 sont maintenus dans leur rédaction résultant de l'ordonnance n° 2020-1342 du 4 novembre 2020.
+2. **Suppression de certaines dispositions** :
+   - Le point 7° du III, qui concernait l'application de l'article L. 561-31-2, a été supprimé. Cela pourrait indiquer une simplification ou une révision des dispositions relatives à cet article.
+3. **Adaptations spécifiques à la Nouvelle-Calédonie** :
+   - Les références aux règlements européens portant mesures restrictives pris en application des articles 75 ou 215 du traité sur le fonctionnement de l'Union européenne sont remplacées par des références aux règlements européens mentionnés à l'article L. 713-16. Cela montre une adaptation plus précise aux règlements européens pertinents pour la Nouvelle-Calédonie.
+   - Les valeurs monétaires exprimées en euros continuent d'être remplacées par leur contre-valeur en francs CFP, ce qui est une adaptation nécessaire pour la monnaie locale.
+4. **Clarifications et précisions** :
+   - Les références aux autorités locales et aux dispositions applicables localement sont maintenues, ce qui assure que les adaptations législatives tiennent compte des spécificités locales en matière de contrôle et de sanction des professions réglementées.
+   - Les modifications apportées aux articles L. 561-46 et L. 561-47, notamment la suppression des références à l'espace économique européen et l'adaptation des références aux tribunaux locaux, renforcent l'application locale des dispositions législatives.
+**Conséquences et portée** :
+- **Renforcement de la lutte contre le blanchiment et le financement du terrorisme** : Les mises à jour législatives et les références aux ordonnances récentes montrent un effort continu pour aligner la législation de la Nouvelle-Calédonie avec les normes internationales et européennes en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme.
+- **Adaptation locale** : Les nombreuses adaptations spécifiques à la Nouvelle-Calédonie assurent que la législation est pertinente et applicable dans le contexte local, ce qui est crucial pour l'efficacité des mesures législatives.
+- **Simplification et clarification** : La suppression de certaines dispositions et la mise à jour des références législatives contribuent à une meilleure clarté et à une simplification de la législation applicable, ce qui peut faciliter la compréhension et l'application par les autorités locales et les parties concernées.
+En conclusion, les modifications apportées à cet article de loi visent principalement à mettre à jour les références législatives, à adapter les dispositions aux spécificités locales de la Nouvelle-Calédonie, et à renforcer le cadre juridique en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme. Ces changements devraient améliorer l'efficacité et la pertinence de la législation dans ce territoire.</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>L'analyse des modifications apportées à l'article de loi révèle plusieurs ajustements notables entre l'ancienne et la nouvelle version. Voici les principaux changements, leur portée et leurs éventuelles conséquences :
-1. **Références législatives et ordonnances** :
-   - La nouvelle version a supprimé les références spécifiques à certaines lois et ordonnances, notamment celles résultant de la loi n° 2021-1308 du 8 octobre 2021 et de l'ordonnance n° 2021-958 du 19 juillet 2021. Cela simplifie la structure de l'article en réduisant le nombre de références législatives spécifiques, ce qui peut faciliter la compréhension et l'application du texte.
-2. **Applicabilité des articles** :
-   - Les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont désormais applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020. Cela indique une harmonisation des dispositions relatives à la lutte contre le blanchiment de capitaux et le financement du terrorisme, spécifiquement pour les actifs numériques.
-3. **Suppression de certaines dispositions** :
-   - Le point 7° du III a été supprimé dans la nouvelle version. Cette suppression pourrait indiquer une simplification ou une révision des dispositions spécifiques qui étaient auparavant jugées nécessaires.
-4. **Adaptations locales** :
-   - Les adaptations locales restent largement inchangées, mais la nouvelle version continue de préciser les remplacements des références aux codes et lois métropolitains par des dispositions locales équivalentes. Cela maintient la pertinence et l'applicabilité des dispositions légales en Nouvelle-Calédonie.
-5. **Suppression de références à l'Union européenne** :
-   - Plusieurs références aux règlements européens et aux États membres de l'Union européenne ont été supprimées. Cela pourrait refléter une volonté de rendre les dispositions plus autonomes et moins dépendantes des régulations européennes, ce qui peut être pertinent dans le contexte de la Nouvelle-Calédonie.
-6. **Valeurs monétaires** :
-   - Les valeurs monétaires exprimées en euros continuent d'être remplacées par leur contre-valeur en francs CFP, assurant ainsi la pertinence économique locale des dispositions.
-**Portée et conséquences** :
-- **Simplification et clarté** : La suppression de certaines références législatives et la réduction des renvois à des ordonnances spécifiques simplifient le texte, le rendant plus accessible et plus facile à appliquer.
-- **Harmonisation** : L'application des articles dans leur rédaction résultant de l'ordonnance n° 2020-1544 montre une harmonisation des mesures de lutte contre le blanchiment de capitaux et le financement du terrorisme, notamment pour les actifs numériques.
-- **Autonomie locale** : La suppression des références aux règlements européens et l'accent mis sur les adaptations locales renforcent l'autonomie juridique de la Nouvelle-Calédonie, tout en maintenant une cohérence avec les objectifs nationaux de lutte contre le blanchiment et le financement du terrorisme.
-En conclusion, les modifications apportées visent principalement à simplifier le texte, à harmoniser certaines dispositions spécifiques aux actifs numériques et à renforcer l'autonomie locale en matière de régulation financière et de lutte contre le blanchiment de capitaux et le financement du terrorisme.</t>
+          <t>L'analyse des modifications entre l'ancienne et la nouvelle version de l'article de loi révèle plusieurs ajustements notables, principalement dans la section I. Voici les principaux changements et leurs implications :
+1. **Références aux textes législatifs et ordonnances** :
+   - La nouvelle version a supprimé les références spécifiques à la loi n° 2021-1308 du 8 octobre 2021 et à l'ordonnance n° 2021-958 du 19 juillet 2021. Désormais, les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020.
+   - Les articles L. 561-36, L. 561-36-2, L. 561-36-3, L. 561-37, L. 561-38, L. 562-3 à L. 562-9, L. 562-11, L. 562-12 et L. 574-3 restent applicables dans leur rédaction résultant de l'ordonnance n° 2020-1342 du 4 novembre 2020.
+2. **Suppression de certaines dispositions** :
+   - Le point 7° du III a été supprimé dans la nouvelle version. Ce point concernait les modifications spécifiques pour l'application de l'article L. 561-31-2 en Nouvelle-Calédonie.
+3. **Clarification et simplification** :
+   - La nouvelle version a simplifié certaines références et supprimé des mentions redondantes ou spécifiques à l'Union européenne, notamment en ce qui concerne les règlements européens et les dispositions relatives à l'espace économique européen.
+   - Les références aux règlements européens portant mesures restrictives ont été remplacées par des références aux règlements européens mentionnés à l'article L. 713-16.
+4. **Conséquences pratiques** :
+   - La suppression de certaines références et la simplification des textes peuvent faciliter l'application locale des dispositions législatives en Nouvelle-Calédonie.
+   - La suppression du point 7° du III pourrait indiquer une volonté de réduire la complexité ou de recentrer les adaptations locales sur des points jugés plus pertinents.
+En conclusion, les modifications apportées visent principalement à simplifier et clarifier les dispositions applicables en Nouvelle-Calédonie, tout en supprimant certaines références spécifiques à l'Union européenne. Ces ajustements devraient permettre une application plus cohérente et moins complexe des textes législatifs dans ce territoire.</t>
         </is>
       </c>
     </row>
@@ -1973,54 +1963,50 @@
       <c r="V11" t="inlineStr">
         <is>
           <t>L'analyse des modifications entre l'ancienne et la nouvelle version de l'article révèle plusieurs changements notables :
-1. **Suppression de Références Spécifiques** :
-   - La nouvelle version a supprimé les références spécifiques à la loi n° 2021-1308 du 8 octobre 2021 et à l'ordonnance n° 2021-958 du 19 juillet 2021. Cela simplifie le texte en se concentrant sur les ordonnances et lois plus récentes et pertinentes.
-2. **Harmonisation des Références** :
-   - Les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont désormais tous mentionnés dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020. Cela montre une volonté d'harmoniser les références législatives pour une meilleure cohérence.
-3. **Suppression de Dispositions** :
-   - Le point 7° du III a été supprimé dans la nouvelle version. Cela pourrait indiquer une simplification ou une suppression de dispositions jugées non nécessaires ou redondantes.
-4. **Clarification des Adaptations Locales** :
-   - Les adaptations locales restent largement inchangées, mais la suppression de certaines références européennes (comme celles aux règlements européens portant mesures restrictives) montre une volonté de clarifier et de simplifier l'application locale des dispositions.
-5. **Maintien des Adaptations Monétaires** :
-   - Les valeurs monétaires exprimées en euros continuent d'être remplacées par leur contre-valeur en francs CFP, ce qui est essentiel pour l'application locale en Polynésie française.
-6. **Références aux Autorités Locales** :
-   - Les références aux autorités locales exerçant le pouvoir de contrôle et de sanction sur certaines professions sont maintenues, assurant ainsi que les adaptations locales restent pertinentes et applicables.
-En résumé, les modifications apportées visent principalement à simplifier et à harmoniser les références législatives, tout en maintenant les adaptations nécessaires pour l'application locale en Polynésie française. La suppression de certaines dispositions et références spécifiques montre une volonté de rendre le texte plus clair et plus cohérent.</t>
+1. **Références législatives et ordonnances** :
+   - La nouvelle version a supprimé les références spécifiques à certaines lois et ordonnances, notamment celles de la loi n° 2021-1308 du 8 octobre 2021 et de l'ordonnance n° 2021-958 du 19 juillet 2021. Cela simplifie la rédaction et peut indiquer une volonté de se concentrer sur des textes plus récents ou plus pertinents.
+2. **Applicabilité des articles** :
+   - Les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont désormais applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020, ce qui montre une mise à jour pour inclure des dispositions plus récentes concernant la lutte contre le blanchiment de capitaux et le financement du terrorisme.
+3. **Suppression de certaines dispositions** :
+   - Le point 7° du III a été supprimé dans la nouvelle version. Cela pourrait indiquer que les dispositions précédemment mentionnées ne sont plus jugées nécessaires ou pertinentes pour l'application en Polynésie française.
+4. **Clarification et simplification** :
+   - La nouvelle version semble avoir simplifié certaines formulations et supprimé des redondances, ce qui peut faciliter la compréhension et l'application des dispositions légales.
+5. **Adaptations locales** :
+   - Les adaptations locales restent largement inchangées, mais la suppression de certaines références européennes et la clarification des termes montrent une volonté d'adapter plus précisément les textes aux réalités locales de la Polynésie française.
+En résumé, les modifications apportées visent principalement à actualiser les références législatives, simplifier la rédaction, et supprimer des dispositions jugées non nécessaires, tout en maintenant une adaptation locale cohérente. Ces changements reflètent une volonté d'aligner les textes sur les évolutions législatives récentes et de faciliter leur application en Polynésie française.</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>L'analyse des modifications apportées à l'article de loi révèle plusieurs ajustements notables entre l'ancienne et la nouvelle version. Voici les principaux changements, leur portée et leurs éventuelles conséquences :
-1. **Références législatives et ordonnances** :
-   - La nouvelle version a supprimé les références spécifiques à certaines lois et ordonnances, notamment la loi n° 2021-1308 du 8 octobre 2021 et l'ordonnance n° 2021-958 du 19 juillet 2021. Cela pourrait indiquer une volonté de simplification ou de mise à jour des références législatives pour une meilleure clarté et cohérence.
-2. **Applicabilité des articles** :
-   - Les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont désormais applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020. Cela montre une harmonisation des textes applicables en Polynésie française avec les évolutions récentes en matière de lutte contre le blanchiment de capitaux et le financement du terrorisme.
-3. **Suppression de certaines dispositions** :
-   - La suppression du point 7° dans la section III de la nouvelle version indique que certaines dispositions spécifiques ne sont plus jugées nécessaires ou pertinentes pour l'application en Polynésie française. Cela pourrait simplifier l'application de la loi et réduire les ambiguïtés.
-4. **Adaptations locales** :
-   - Les adaptations locales restent largement inchangées, avec des références aux autorités locales et aux valeurs monétaires en francs CFP. Cela continue de garantir que les dispositions législatives sont adaptées au contexte spécifique de la Polynésie française.
-5. **Suppression de références à l'Union européenne** :
-   - Plusieurs références aux règlements européens et aux États membres de l'Union européenne ont été supprimées. Cela pourrait refléter une volonté de rendre les dispositions plus autonomes et moins dépendantes des régulations européennes, ce qui est pertinent pour un territoire d'outre-mer.
-6. **Clarifications et simplifications** :
-   - La nouvelle version apporte des clarifications sur les termes et les références, par exemple, en remplaçant les termes relatifs aux règlements européens par des termes plus généraux ou locaux. Cela peut améliorer la compréhension et l'application des dispositions légales par les autorités locales.
-En conclusion, les modifications apportées visent principalement à actualiser les références législatives, simplifier certaines dispositions, et adapter les textes aux spécificités locales de la Polynésie française. Ces changements devraient faciliter l'application de la loi et renforcer l'efficacité des mesures de lutte contre le blanchiment de capitaux et le financement du terrorisme dans ce territoire.</t>
+          <t>L'analyse des versions antérieure et révisée de l'article de loi révèle plusieurs modifications notables, principalement dans les références législatives et les adaptations spécifiques à la Polynésie française.
+1. **Références législatives mises à jour** :
+   - La nouvelle version intègre les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020, ce qui n'était pas le cas dans l'ancienne version. Cela indique une harmonisation avec les dispositions récentes concernant la lutte contre le blanchiment de capitaux et le financement du terrorisme applicables aux actifs numériques.
+   - Les articles L. 561-36, L. 561-36-2, L. 561-36-3, L. 561-37, L. 561-38, L. 562-3 à L. 562-9, L. 562-11, L. 562-12 et L. 574-3 sont maintenus dans leur rédaction résultant de l'ordonnance n° 2020-1342 du 4 novembre 2020, ce qui reste inchangé.
+2. **Suppression de certaines dispositions** :
+   - La nouvelle version a supprimé le point 7° du III, qui concernait les adaptations spécifiques pour l'application de l'article L. 561-31-2. Cela pourrait indiquer une simplification ou une révision des adaptations nécessaires pour la Polynésie française.
+3. **Harmonisation des termes et références** :
+   - Les références aux règlements européens et aux traités de l'Union européenne ont été systématiquement remplacées par des termes plus génériques ou par des références aux dispositions locales équivalentes. Par exemple, les mots "des règlements européens portant mesures restrictives pris en application des articles 75 ou 215 du traité sur le fonctionnement de l'Union européenne" sont remplacés par "des règlements européens mentionnés à l'article L. 713-16".
+   - Les références aux autorités locales compétentes ont été maintenues, ce qui assure que les adaptations locales sont respectées.
+4. **Conséquences et portée des modifications** :
+   - Les modifications apportées visent principalement à actualiser les références législatives et à simplifier les adaptations spécifiques à la Polynésie française. Cela pourrait améliorer la clarté et l'application des dispositions légales dans ce territoire.
+   - La suppression de certaines dispositions spécifiques pourrait indiquer une volonté de réduire la complexité administrative et de faciliter l'application uniforme des lois.
+En conclusion, les modifications apportées à cet article de loi semblent viser une meilleure harmonisation avec les récentes évolutions législatives et une simplification des adaptations locales, tout en maintenant les spécificités nécessaires pour la Polynésie française. Ces changements devraient contribuer à une application plus efficace et cohérente des dispositions relatives à la lutte contre le financement du terrorisme et le blanchiment des capitaux.</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>L'analyse des modifications entre l'ancienne et la nouvelle version de l'article de loi révèle plusieurs ajustements notables, principalement dans les références législatives et les adaptations spécifiques à la Polynésie française.
+          <t>L'analyse des modifications apportées à l'article de loi révèle plusieurs ajustements notables, principalement dans la mise à jour des références législatives et la suppression de certaines dispositions spécifiques. Voici les principaux changements et leurs implications :
 1. **Références législatives mises à jour** :
-   - La nouvelle version a supprimé les références à la loi n° 2021-1308 du 8 octobre 2021 et à l'ordonnance n° 2021-958 du 19 juillet 2021. Désormais, les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020.
-   - Les articles L. 561-36, L. 561-36-2, L. 561-36-3, L. 561-37, L. 561-38, L. 562-3 à L. 562-9, L. 562-11, L. 562-12 et L. 574-3 sont maintenus dans leur rédaction résultant de l'ordonnance n° 2020-1342 du 4 novembre 2020.
+   - Les articles L. 561-2, L. 561-7, L. 561-14 et L. 561-20 sont désormais applicables dans leur rédaction résultant de l'ordonnance n° 2020-1544 du 9 décembre 2020, ce qui renforce le cadre de la lutte contre le blanchiment de capitaux et le financement du terrorisme pour les actifs numériques.
+   - Les articles L. 561-36, L. 561-36-2, L. 561-36-3, L. 561-37, L. 561-38, L. 562-3 à L. 562-9, L. 562-11, L. 562-12 et L. 574-3 sont applicables dans leur rédaction résultant de l'ordonnance n° 2020-1342 du 4 novembre 2020, renforçant le dispositif de gel des avoirs et d'interdiction de mise à disposition.
 2. **Suppression de certaines dispositions** :
-   - Le point 7° du III, qui faisait référence à l'application de l'article L. 561-31-2, a été supprimé dans la nouvelle version. Cela pourrait indiquer une simplification ou une révision des dispositions relatives à cet article.
-3. **Adaptations spécifiques à la Polynésie française** :
-   - Les adaptations locales restent largement inchangées, mais la suppression du point 7° du III pourrait avoir des implications sur la manière dont certaines infractions sont traitées localement.
-   - Les références aux règlements européens et aux traités de l'Union européenne ont été supprimées dans plusieurs articles, ce qui pourrait indiquer une volonté de renforcer l'autonomie législative de la Polynésie française par rapport aux régulations européennes.
-4. **Conséquences potentielles** :
-   - La suppression des références à certaines ordonnances et la mise à jour des articles applicables pourraient simplifier le cadre législatif et le rendre plus cohérent.
-   - La suppression du point 7° du III pourrait nécessiter une réévaluation des procédures locales pour traiter les infractions de fraude fiscale et autres délits financiers.
-En conclusion, les modifications apportées visent principalement à actualiser les références législatives et à simplifier certaines dispositions spécifiques à la Polynésie française. Ces changements pourraient améliorer la clarté et l'efficacité du cadre législatif applicable dans cette collectivité d'outre-mer.</t>
+   - Le point 7° du III, qui faisait référence à l'application de l'article L. 561-31-2, a été supprimé. Cela pourrait indiquer une simplification ou une réorganisation des dispositions relatives à la fraude fiscale.
+3. **Clarifications et adaptations locales** :
+   - Les références aux règlements européens portant mesures restrictives pris en application des articles 75 ou 215 du traité sur le fonctionnement de l'Union européenne ont été remplacées par des références aux règlements européens mentionnés à l'article L. 713-16. Cela vise à harmoniser les termes utilisés et à clarifier les références pour une meilleure application locale.
+   - Les adaptations spécifiques pour la Polynésie française, telles que la conversion des montants en euros en francs CFP et les références aux autorités locales compétentes, ont été maintenues, assurant ainsi la pertinence et l'applicabilité des dispositions dans le contexte local.
+4. **Suppression de certaines références européennes** :
+   - Plusieurs références à des règlements européens et à des dispositions spécifiques à l'Union européenne ont été supprimées, ce qui pourrait simplifier la législation applicable en Polynésie française et éviter des conflits de juridiction ou des incohérences.
+En conclusion, les modifications apportées visent principalement à mettre à jour les références législatives, à supprimer des dispositions spécifiques pour simplifier la législation, et à adapter les termes et références pour une meilleure application locale en Polynésie française. Ces changements devraient améliorer la clarté et l'efficacité de la lutte contre le blanchiment de capitaux et le financement du terrorisme dans ce territoire.</t>
         </is>
       </c>
     </row>
